--- a/results/mop/pareto_under_cap_label.xlsx
+++ b/results/mop/pareto_under_cap_label.xlsx
@@ -850,10 +850,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.3619736628863608E-2"/>
+          <c:x val="7.3052646331829882E-2"/>
           <c:y val="2.5507246376811593E-2"/>
-          <c:w val="0.82957926000664062"/>
-          <c:h val="0.8658590893529613"/>
+          <c:w val="0.90617065463904389"/>
+          <c:h val="0.81716343717904849"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4228,7 +4228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D42C3D7-EF40-4132-A415-DBD46EF18B22}" type="CELLRANGE">
+                    <a:fld id="{505F3715-73F9-492E-BBC8-FFE4056C02AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4258,9 +4258,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4270,9 +4268,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4282,9 +4278,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4294,9 +4288,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4306,9 +4298,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4318,9 +4308,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4330,9 +4318,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4342,9 +4328,7 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4354,9 +4338,7 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001B-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4366,9 +4348,7 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4378,9 +4358,7 @@
               <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4390,9 +4368,7 @@
               <c:idx val="12"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4402,9 +4378,7 @@
               <c:idx val="13"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4414,9 +4388,7 @@
               <c:idx val="14"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4426,9 +4398,7 @@
               <c:idx val="15"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4438,9 +4408,7 @@
               <c:idx val="16"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000022-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4450,9 +4418,7 @@
               <c:idx val="17"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000023-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4462,9 +4428,7 @@
               <c:idx val="18"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000024-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4483,7 +4447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D06695C9-1E23-4953-B464-588C155C90AC}" type="CELLRANGE">
+                    <a:fld id="{CB50560B-B5A0-4EB4-B3FF-E1B0BBD14AED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4513,9 +4477,7 @@
               <c:idx val="20"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4561,7 +4523,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4832,9 +4793,7 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4844,9 +4803,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4856,9 +4813,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4868,9 +4823,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000027-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4880,9 +4833,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000028-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4892,9 +4843,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000029-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4904,9 +4853,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002A-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4916,9 +4863,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002B-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4928,9 +4873,7 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4940,9 +4883,7 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4952,9 +4893,7 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002E-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4964,9 +4903,7 @@
               <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002F-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4976,9 +4913,7 @@
               <c:idx val="12"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000030-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -4988,9 +4923,7 @@
               <c:idx val="13"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000031-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5036,9 +4969,7 @@
               <c:idx val="15"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000033-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5048,9 +4979,7 @@
               <c:idx val="16"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000034-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5069,7 +4998,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A441FADD-A3AD-4D06-9264-D0CE8E03BFAC}" type="CELLRANGE">
+                    <a:fld id="{71FC613D-A9DF-45DD-AE1E-CF3B9CC1AEBB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5109,7 +5038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1D39C91-9F1A-4F5E-8208-45AB5C4849B6}" type="CELLRANGE">
+                    <a:fld id="{EB44EB3A-E2E2-4336-8305-01CCD6F3EAD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5149,7 +5078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{360B4879-6BE2-49F8-9B2F-7E41B9934E1A}" type="CELLRANGE">
+                    <a:fld id="{1B13BC22-6274-483B-B237-2AD3159DDA09}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5180,9 +5109,7 @@
               <c:idx val="20"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000038-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5229,7 +5156,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5509,7 +5435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D957289-847D-474C-B4D1-0C5C134BB040}" type="CELLRANGE">
+                    <a:fld id="{CF55097A-8FE3-4A4E-98EA-D170770D6675}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5541,9 +5467,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5553,9 +5477,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5565,9 +5487,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000039-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5577,9 +5497,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003A-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5589,9 +5507,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003B-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5601,9 +5517,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5613,9 +5527,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5625,9 +5537,7 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003E-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5637,9 +5547,7 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003F-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5649,9 +5557,7 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000040-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5661,9 +5567,7 @@
               <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000041-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5673,9 +5577,7 @@
               <c:idx val="12"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000042-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5685,9 +5587,7 @@
               <c:idx val="13"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000043-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5697,9 +5597,7 @@
               <c:idx val="14"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000044-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5709,9 +5607,7 @@
               <c:idx val="15"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000045-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5730,7 +5626,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{114B0981-28AE-47C8-A7C4-EBC39495C827}" type="CELLRANGE">
+                    <a:fld id="{497BD112-3F79-47C4-9079-E7621F0E1460}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5771,7 +5667,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D98D11BB-D9DF-45CD-8F87-B235EA2820CB}" type="CELLRANGE">
+                    <a:fld id="{DED8CAB1-6742-4773-96D0-A235F70B36A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5812,7 +5708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB45940A-F1F8-42B3-B409-AC8CEBA83A5C}" type="CELLRANGE">
+                    <a:fld id="{02B9E3AA-4963-4697-99BF-989451F5A74C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5853,7 +5749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EBD7DB0-09EE-496F-BA96-A138344BE6B9}" type="CELLRANGE">
+                    <a:fld id="{A2303FD9-7584-486F-BD70-2E613D0C9811}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5885,9 +5781,7 @@
               <c:idx val="20"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000049-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -5935,7 +5829,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6215,7 +6108,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D784A0BA-D430-4613-8831-16EAFECEDC1E}" type="CELLRANGE">
+                    <a:fld id="{D1F402E3-708E-45CA-9007-88EF34A539B4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6245,9 +6138,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6257,9 +6148,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6269,9 +6158,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004A-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6281,9 +6168,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004B-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6293,9 +6178,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6305,9 +6188,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6317,9 +6198,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004E-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6329,9 +6208,7 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004F-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6341,9 +6218,7 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000050-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6353,9 +6228,7 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000051-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6365,9 +6238,7 @@
               <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000052-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6377,9 +6248,7 @@
               <c:idx val="12"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000053-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6398,7 +6267,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2253A264-2A94-47E6-A3F5-1E2D916BC24D}" type="CELLRANGE">
+                    <a:fld id="{06538AFB-2668-4186-97F3-A79DE3E5F4F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6437,7 +6306,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB733619-4C1E-4943-9084-475F152BFA0D}" type="CELLRANGE">
+                    <a:fld id="{D8395435-E9C4-47DE-ABCA-5BE81CD43985}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6476,7 +6345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FEC6B123-F75C-4D15-A044-51A25CC9418A}" type="CELLRANGE">
+                    <a:fld id="{957EF9B9-E516-466D-B3D1-6411B47FC35F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6515,7 +6384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE08D8E1-5AF6-4764-9E1D-3A351F03059E}" type="CELLRANGE">
+                    <a:fld id="{C2B0FDD9-CD66-4C28-9F6B-C9A0E162F120}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6554,7 +6423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64DFAC05-1DE5-485F-87DF-6AA76F0E7770}" type="CELLRANGE">
+                    <a:fld id="{3EE84FF6-72D1-4357-9A15-3D758439FF9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6593,7 +6462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55B893DD-AEB4-438A-86B0-9BFD48CF9E62}" type="CELLRANGE">
+                    <a:fld id="{713C24F2-5A21-4A07-BEAD-83BE7DE67D4C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6632,7 +6501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEFC9B32-2DB8-4513-820B-450B8EF5AC44}" type="CELLRANGE">
+                    <a:fld id="{C2799EEB-3DB3-4577-B529-87B0D5ACD64F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6662,9 +6531,7 @@
               <c:idx val="20"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005B-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -6712,7 +6579,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6992,7 +6858,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEBEEDD4-9AE6-4812-9907-07C38162731F}" type="CELLRANGE">
+                    <a:fld id="{8D01B307-FC24-4501-91EE-D779534749E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7023,9 +6889,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7035,9 +6899,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7047,9 +6909,7 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7059,9 +6919,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005D-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7071,9 +6929,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005E-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7083,9 +6939,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005F-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7095,9 +6949,7 @@
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000060-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7107,9 +6959,7 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000061-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7119,9 +6969,7 @@
               <c:idx val="9"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000062-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7131,9 +6979,7 @@
               <c:idx val="10"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000063-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7143,9 +6989,7 @@
               <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000064-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7155,9 +6999,7 @@
               <c:idx val="12"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000065-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7176,7 +7018,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32EBC67C-145F-421B-881E-CD232932A219}" type="CELLRANGE">
+                    <a:fld id="{B0EF7129-AED6-4BEB-97A6-843FFC1F04C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7216,7 +7058,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C486D875-163D-4126-BCC6-34CB4BE48519}" type="CELLRANGE">
+                    <a:fld id="{ABD7EB61-48D1-4DBE-9D84-DBF4CFEA39DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7256,7 +7098,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FC6559C-1D3C-41D4-B4DC-E0F1BBF806E7}" type="CELLRANGE">
+                    <a:fld id="{D3D35015-122E-4D00-B483-45F3A959412D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7296,7 +7138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{536C111F-BF2A-43AC-8840-9B8B529E7FEE}" type="CELLRANGE">
+                    <a:fld id="{BF0A6439-7946-4095-BB9E-A4A3D150D004}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7336,7 +7178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C52A98FB-565C-4E8C-B73B-B8BC3E53E21F}" type="CELLRANGE">
+                    <a:fld id="{989C766A-CD3C-42D3-9310-042A31E8D898}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7376,7 +7218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{753A73B2-E6D0-452A-A00A-4DA788C9DA6E}" type="CELLRANGE">
+                    <a:fld id="{2D770ADF-DBDB-44B9-8BA1-13E46AD1F760}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7416,7 +7258,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98C5214C-3037-4B86-BB3D-33BAFA5A9428}" type="CELLRANGE">
+                    <a:fld id="{F9F9593B-8662-43A6-A0E6-E9DE40E8AFD7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7447,9 +7289,7 @@
               <c:idx val="20"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000006C-1AE9-4D5B-98A8-333597954982}"/>
                 </c:ext>
@@ -7496,7 +7336,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7995,7 +7834,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:legendEntry>
         <c:idx val="5"/>
         <c:delete val="1"/>
@@ -8643,16 +8482,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8939,8 +8778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9033,43 +8872,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A4)</f>
+        <f t="shared" ref="D4:D24" ca="1" si="0">INDIRECT(""&amp;D$1&amp;"!"&amp;$A4)</f>
         <v>110.55461592151499</v>
       </c>
       <c r="E4">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B4)</f>
+        <f t="shared" ref="E4:E24" ca="1" si="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B4)</f>
         <v>0.1820346890017123</v>
       </c>
       <c r="F4">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A4)</f>
+        <f t="shared" ref="F4:F24" ca="1" si="2">INDIRECT(""&amp;F$1&amp;"!"&amp;$A4)</f>
         <v>102.726272181525</v>
       </c>
       <c r="G4">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B4)</f>
+        <f t="shared" ref="G4:G24" ca="1" si="3">INDIRECT(""&amp;F$1&amp;"!"&amp;$B4)</f>
         <v>0.4873705243221001</v>
       </c>
       <c r="H4">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A4)</f>
+        <f t="shared" ref="H4:H24" ca="1" si="4">INDIRECT(""&amp;H$1&amp;"!"&amp;$A4)</f>
         <v>93.776926387355203</v>
       </c>
       <c r="I4">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B4)</f>
+        <f t="shared" ref="I4:I24" ca="1" si="5">INDIRECT(""&amp;H$1&amp;"!"&amp;$B4)</f>
         <v>0.64769870220316972</v>
       </c>
       <c r="J4">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A4)</f>
+        <f t="shared" ref="J4:J24" ca="1" si="6">INDIRECT(""&amp;J$1&amp;"!"&amp;$A4)</f>
         <v>84.090477882262704</v>
       </c>
       <c r="K4">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B4)</f>
+        <f t="shared" ref="K4:K24" ca="1" si="7">INDIRECT(""&amp;J$1&amp;"!"&amp;$B4)</f>
         <v>0.72988512123452642</v>
       </c>
       <c r="L4">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A4)</f>
+        <f t="shared" ref="L4:L24" ca="1" si="8">INDIRECT(""&amp;L$1&amp;"!"&amp;$A4)</f>
         <v>82.333788986335506</v>
       </c>
       <c r="M4">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B4)</f>
+        <f t="shared" ref="M4:M24" ca="1" si="9">INDIRECT(""&amp;L$1&amp;"!"&amp;$B4)</f>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9084,43 +8923,43 @@
         <v>0.05</v>
       </c>
       <c r="D5">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E5">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B5)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F5">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A5)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.726272181525</v>
       </c>
       <c r="G5">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B5)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4873705243221001</v>
       </c>
       <c r="H5">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.776926387355203</v>
       </c>
       <c r="I5">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B5)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220316972</v>
       </c>
       <c r="J5">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A5)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>84.090477882262704</v>
       </c>
       <c r="K5">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B5)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L5">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A5)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.333788986335506</v>
       </c>
       <c r="M5">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B5)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9135,43 +8974,43 @@
         <v>0.1</v>
       </c>
       <c r="D6">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E6">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B6)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F6">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A6)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.726272181525</v>
       </c>
       <c r="G6">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B6)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4873705243221001</v>
       </c>
       <c r="H6">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A6)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.776926387355203</v>
       </c>
       <c r="I6">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B6)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220316972</v>
       </c>
       <c r="J6">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A6)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>84.090477882262704</v>
       </c>
       <c r="K6">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B6)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L6">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A6)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.333788986335506</v>
       </c>
       <c r="M6">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B6)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9186,43 +9025,43 @@
         <v>0.15</v>
       </c>
       <c r="D7">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E7">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B7)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F7">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A7)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.726272181525</v>
       </c>
       <c r="G7">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B7)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4873705243221001</v>
       </c>
       <c r="H7">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A7)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.776926387355203</v>
       </c>
       <c r="I7">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B7)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220316972</v>
       </c>
       <c r="J7">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A7)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>84.090477882262704</v>
       </c>
       <c r="K7">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B7)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L7">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A7)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.333788986335506</v>
       </c>
       <c r="M7">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B7)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9237,43 +9076,43 @@
         <v>0.2</v>
       </c>
       <c r="D8">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A8)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E8">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B8)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F8">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A8)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.726272181525</v>
       </c>
       <c r="G8">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B8)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4873705243221001</v>
       </c>
       <c r="H8">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A8)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.776926387355203</v>
       </c>
       <c r="I8">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B8)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220316972</v>
       </c>
       <c r="J8">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A8)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>84.090477882262704</v>
       </c>
       <c r="K8">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B8)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L8">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A8)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.333788986335506</v>
       </c>
       <c r="M8">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B8)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9288,43 +9127,43 @@
         <v>0.25</v>
       </c>
       <c r="D9">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E9">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B9)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F9">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A9)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.726272181525</v>
       </c>
       <c r="G9">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B9)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4873705243221001</v>
       </c>
       <c r="H9">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A9)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.776926387355203</v>
       </c>
       <c r="I9">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B9)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220316972</v>
       </c>
       <c r="J9">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A9)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>84.090477882262704</v>
       </c>
       <c r="K9">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B9)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L9">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A9)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.333788986335506</v>
       </c>
       <c r="M9">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B9)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9339,43 +9178,43 @@
         <v>0.3</v>
       </c>
       <c r="D10">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E10">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B10)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F10">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A10)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.726272181525</v>
       </c>
       <c r="G10">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B10)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4873705243221001</v>
       </c>
       <c r="H10">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A10)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.776926387355203</v>
       </c>
       <c r="I10">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B10)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220316972</v>
       </c>
       <c r="J10">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A10)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>84.090477882262704</v>
       </c>
       <c r="K10">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B10)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L10">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A10)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.333788986335506</v>
       </c>
       <c r="M10">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B10)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9390,43 +9229,43 @@
         <v>0.35</v>
       </c>
       <c r="D11">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A11)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E11">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B11)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F11">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A11)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.726272181525</v>
       </c>
       <c r="G11">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B11)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4873705243221001</v>
       </c>
       <c r="H11">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A11)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.776926387355203</v>
       </c>
       <c r="I11">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B11)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220316972</v>
       </c>
       <c r="J11">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A11)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>84.090477882262704</v>
       </c>
       <c r="K11">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B11)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L11">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A11)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.333788986335506</v>
       </c>
       <c r="M11">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B11)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9441,43 +9280,43 @@
         <v>0.4</v>
       </c>
       <c r="D12">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A12)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E12">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B12)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F12">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A12)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.726272181525</v>
       </c>
       <c r="G12">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B12)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4873705243221001</v>
       </c>
       <c r="H12">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A12)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.776926387355203</v>
       </c>
       <c r="I12">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B12)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220316972</v>
       </c>
       <c r="J12">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A12)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>84.090477882262704</v>
       </c>
       <c r="K12">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B12)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L12">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A12)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.333788986335506</v>
       </c>
       <c r="M12">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B12)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9492,43 +9331,43 @@
         <v>0.45</v>
       </c>
       <c r="D13">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E13">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B13)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F13">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.726272181525</v>
       </c>
       <c r="G13">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B13)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4873705243221001</v>
       </c>
       <c r="H13">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A13)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.776926387355203</v>
       </c>
       <c r="I13">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B13)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220316972</v>
       </c>
       <c r="J13">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A13)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>83.933888525229904</v>
       </c>
       <c r="K13">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B13)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L13">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A13)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.190945936805505</v>
       </c>
       <c r="M13">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B13)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9543,43 +9382,43 @@
         <v>0.5</v>
       </c>
       <c r="D14">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E14">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B14)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F14">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A14)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.726272181525</v>
       </c>
       <c r="G14">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B14)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4873705243221001</v>
       </c>
       <c r="H14">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A14)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.394865286376501</v>
       </c>
       <c r="I14">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B14)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220317005</v>
       </c>
       <c r="J14">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A14)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>83.933888525229904</v>
       </c>
       <c r="K14">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B14)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L14">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A14)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.190945936805505</v>
       </c>
       <c r="M14">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B14)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9594,43 +9433,43 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D15">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A15)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E15">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B15)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F15">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A15)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.726272181525</v>
       </c>
       <c r="G15">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B15)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4873705243221001</v>
       </c>
       <c r="H15">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A15)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.394865286376501</v>
       </c>
       <c r="I15">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B15)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220317005</v>
       </c>
       <c r="J15">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A15)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>83.933888525229904</v>
       </c>
       <c r="K15">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B15)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L15">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A15)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.190945936805505</v>
       </c>
       <c r="M15">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B15)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9645,43 +9484,43 @@
         <v>0.6</v>
       </c>
       <c r="D16">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A16)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E16">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B16)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F16">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A16)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>97.991347348280897</v>
       </c>
       <c r="G16">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B16)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.48737052432210026</v>
       </c>
       <c r="H16">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A16)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.394865286376501</v>
       </c>
       <c r="I16">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B16)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220317005</v>
       </c>
       <c r="J16">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A16)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>83.933888525229904</v>
       </c>
       <c r="K16">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B16)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72988512123452642</v>
       </c>
       <c r="L16">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A16)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82.190945936805505</v>
       </c>
       <c r="M16">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B16)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.73695148812758826</v>
       </c>
     </row>
@@ -9696,43 +9535,43 @@
         <v>0.65</v>
       </c>
       <c r="D17">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A17)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E17">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B17)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F17">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A17)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>97.991347348280897</v>
       </c>
       <c r="G17">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B17)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.48737052432210026</v>
       </c>
       <c r="H17">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A17)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.394865286376501</v>
       </c>
       <c r="I17">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B17)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220317005</v>
       </c>
       <c r="J17">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A17)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>84.322224012687599</v>
       </c>
       <c r="K17">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B17)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.72915853273083897</v>
       </c>
       <c r="L17">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A17)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>84.744216784944399</v>
       </c>
       <c r="M17">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B17)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.72906907997341053</v>
       </c>
     </row>
@@ -9747,43 +9586,43 @@
         <v>0.7</v>
       </c>
       <c r="D18">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A18)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E18">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B18)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F18">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A18)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>97.991347348280897</v>
       </c>
       <c r="G18">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B18)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.48737052432210026</v>
       </c>
       <c r="H18">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.855369660119095</v>
       </c>
       <c r="I18">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B18)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220316972</v>
       </c>
       <c r="J18">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A18)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>92.033983798930805</v>
       </c>
       <c r="K18">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B18)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.71068792851004892</v>
       </c>
       <c r="L18">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A18)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>91.263002691478505</v>
       </c>
       <c r="M18">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B18)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.70755857948500422</v>
       </c>
     </row>
@@ -9798,43 +9637,43 @@
         <v>0.75</v>
       </c>
       <c r="D19">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A19)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E19">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B19)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F19">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A19)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>97.991347348280897</v>
       </c>
       <c r="G19">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B19)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.48737052432210026</v>
       </c>
       <c r="H19">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A19)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>93.855369660119095</v>
       </c>
       <c r="I19">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B19)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.64769870220316972</v>
       </c>
       <c r="J19">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A19)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>97.294873860793402</v>
       </c>
       <c r="K19">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B19)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.67259041525025909</v>
       </c>
       <c r="L19">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A19)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>97.781788598012795</v>
       </c>
       <c r="M19">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B19)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.66144859486543628</v>
       </c>
     </row>
@@ -9849,43 +9688,43 @@
         <v>0.8</v>
       </c>
       <c r="D20">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A20)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E20">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B20)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F20">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A20)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>97.991347348280897</v>
       </c>
       <c r="G20">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B20)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.48737052432210026</v>
       </c>
       <c r="H20">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A20)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>99.070414090015603</v>
       </c>
       <c r="I20">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B20)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.60293919447559374</v>
       </c>
       <c r="J20">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A20)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>103.781198784846</v>
       </c>
       <c r="K20">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B20)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.61922364248324846</v>
       </c>
       <c r="L20">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A20)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>104.300574504547</v>
       </c>
       <c r="M20">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B20)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.60625478047346915</v>
       </c>
     </row>
@@ -9900,43 +9739,43 @@
         <v>0.85</v>
       </c>
       <c r="D21">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E21">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B21)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F21">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A21)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>102.180818551352</v>
       </c>
       <c r="G21">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B21)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.48737052432210026</v>
       </c>
       <c r="H21">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A21)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>105.262314970641</v>
       </c>
       <c r="I21">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B21)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.53951617419905629</v>
       </c>
       <c r="J21">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A21)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>110.26752370889901</v>
       </c>
       <c r="K21">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B21)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.53547901781666751</v>
       </c>
       <c r="L21">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A21)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>110.81936041108101</v>
       </c>
       <c r="M21">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B21)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.52159958306877863</v>
       </c>
     </row>
@@ -9951,43 +9790,43 @@
         <v>0.9</v>
       </c>
       <c r="D22">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A22)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.55461592151499</v>
       </c>
       <c r="E22">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B22)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F22">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>105.37614798348299</v>
       </c>
       <c r="G22">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B22)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.4374454239819236</v>
       </c>
       <c r="H22">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A22)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>111.45421585126699</v>
       </c>
       <c r="I22">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B22)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.41215299624440316</v>
       </c>
       <c r="J22">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A22)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>116.753848632952</v>
       </c>
       <c r="K22">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B22)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.48074597349985632</v>
       </c>
       <c r="L22">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A22)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>117.338146317615</v>
       </c>
       <c r="M22">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B22)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.46403592961887202</v>
       </c>
     </row>
@@ -10002,43 +9841,43 @@
         <v>0.95</v>
       </c>
       <c r="D23">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.827480468855</v>
       </c>
       <c r="E23">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B23)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1820346890017123</v>
       </c>
       <c r="F23">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A23)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>111.23037842701</v>
       </c>
       <c r="G23">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B23)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.40418492774797948</v>
       </c>
       <c r="H23">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>117.646116731893</v>
       </c>
       <c r="I23">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B23)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.23470608297807302</v>
       </c>
       <c r="J23">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A23)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>123.24017355700499</v>
       </c>
       <c r="K23">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B23)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.27748393188043619</v>
       </c>
       <c r="L23">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A23)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>123.85693222414901</v>
       </c>
       <c r="M23">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B23)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.27539366406835369</v>
       </c>
     </row>
@@ -10053,43 +9892,43 @@
         <v>38</v>
       </c>
       <c r="D24">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A24)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>112.10695359947999</v>
       </c>
       <c r="E24">
-        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B24)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A24)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>117.084608870537</v>
       </c>
       <c r="G24">
-        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B24)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A24)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>123.838017612519</v>
       </c>
       <c r="I24">
-        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B24)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A24)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>129.726498481058</v>
       </c>
       <c r="K24">
-        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B24)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A24)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>130.375718130683</v>
       </c>
       <c r="M24">
-        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B24)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>

--- a/results/mop/pareto_under_cap_label.xlsx
+++ b/results/mop/pareto_under_cap_label.xlsx
@@ -4228,7 +4228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{505F3715-73F9-492E-BBC8-FFE4056C02AE}" type="CELLRANGE">
+                    <a:fld id="{3D23538D-48C6-4B8D-B936-3CCF54752427}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4447,7 +4447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB50560B-B5A0-4EB4-B3FF-E1B0BBD14AED}" type="CELLRANGE">
+                    <a:fld id="{A3B3CF96-6A22-48E8-A4F1-3A7F4975D2AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4998,7 +4998,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71FC613D-A9DF-45DD-AE1E-CF3B9CC1AEBB}" type="CELLRANGE">
+                    <a:fld id="{35DB55A0-491F-4351-B65F-FC4D10B13565}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5038,7 +5038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB44EB3A-E2E2-4336-8305-01CCD6F3EAD0}" type="CELLRANGE">
+                    <a:fld id="{D4ED8DD8-313C-435D-A922-2907A1DEB900}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5078,7 +5078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B13BC22-6274-483B-B237-2AD3159DDA09}" type="CELLRANGE">
+                    <a:fld id="{B82CDD95-FEFA-4AAE-8B76-680626070500}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5435,7 +5435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF55097A-8FE3-4A4E-98EA-D170770D6675}" type="CELLRANGE">
+                    <a:fld id="{6AE3A071-0EA4-46E4-879F-DD81039F2E45}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5626,7 +5626,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{497BD112-3F79-47C4-9079-E7621F0E1460}" type="CELLRANGE">
+                    <a:fld id="{4D82FD7E-F34F-47FE-A375-1234D2D52C91}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5667,7 +5667,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DED8CAB1-6742-4773-96D0-A235F70B36A9}" type="CELLRANGE">
+                    <a:fld id="{662C9B8A-3B3A-437B-B98A-95600F5DB9CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5708,7 +5708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02B9E3AA-4963-4697-99BF-989451F5A74C}" type="CELLRANGE">
+                    <a:fld id="{0C567237-5DFD-460F-80AF-330ACA065C0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5749,7 +5749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2303FD9-7584-486F-BD70-2E613D0C9811}" type="CELLRANGE">
+                    <a:fld id="{41E67791-EA82-4295-A83D-70190631B005}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6108,7 +6108,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1F402E3-708E-45CA-9007-88EF34A539B4}" type="CELLRANGE">
+                    <a:fld id="{7EABDAF1-3A47-4F41-8F3B-166EEE45BE77}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6267,7 +6267,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06538AFB-2668-4186-97F3-A79DE3E5F4F0}" type="CELLRANGE">
+                    <a:fld id="{36A7165B-C607-4A77-B7A1-529A9AD93C92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6306,7 +6306,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8395435-E9C4-47DE-ABCA-5BE81CD43985}" type="CELLRANGE">
+                    <a:fld id="{008E6D9B-0D0A-4AB8-809C-3F911C9DA946}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6345,7 +6345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{957EF9B9-E516-466D-B3D1-6411B47FC35F}" type="CELLRANGE">
+                    <a:fld id="{7D583538-BB86-46C2-9ED7-9F31625A7C74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6384,7 +6384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2B0FDD9-CD66-4C28-9F6B-C9A0E162F120}" type="CELLRANGE">
+                    <a:fld id="{2E4F7231-DFB7-4F20-A4D8-D920DB51D196}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6423,7 +6423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EE84FF6-72D1-4357-9A15-3D758439FF9A}" type="CELLRANGE">
+                    <a:fld id="{80CDD9EE-7A9D-4568-9C33-AA1B69081A34}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6462,7 +6462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{713C24F2-5A21-4A07-BEAD-83BE7DE67D4C}" type="CELLRANGE">
+                    <a:fld id="{00341F76-BAF0-4B82-9BDF-E6EC1B585B1F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6501,7 +6501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2799EEB-3DB3-4577-B529-87B0D5ACD64F}" type="CELLRANGE">
+                    <a:fld id="{2550B21D-DEB8-4329-AB92-8876BAF8E8B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6858,7 +6858,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D01B307-FC24-4501-91EE-D779534749E1}" type="CELLRANGE">
+                    <a:fld id="{8CFAAF2D-586D-43DA-85B8-EBAF3B2302AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7018,7 +7018,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0EF7129-AED6-4BEB-97A6-843FFC1F04C0}" type="CELLRANGE">
+                    <a:fld id="{44A87ACA-11D0-477C-A361-D7259E18FCC6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7058,7 +7058,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABD7EB61-48D1-4DBE-9D84-DBF4CFEA39DF}" type="CELLRANGE">
+                    <a:fld id="{B20E47C1-049C-4719-9D9E-1DFD72B74FE0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7098,7 +7098,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3D35015-122E-4D00-B483-45F3A959412D}" type="CELLRANGE">
+                    <a:fld id="{3E594C6C-84FE-4113-B85F-292D7DF5B8C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7138,7 +7138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF0A6439-7946-4095-BB9E-A4A3D150D004}" type="CELLRANGE">
+                    <a:fld id="{CA313000-37B1-4AE6-BE70-2AF22FEDFFC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7178,7 +7178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{989C766A-CD3C-42D3-9310-042A31E8D898}" type="CELLRANGE">
+                    <a:fld id="{FA52A780-A6AA-41CC-AD49-1403D276BE2E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7218,7 +7218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D770ADF-DBDB-44B9-8BA1-13E46AD1F760}" type="CELLRANGE">
+                    <a:fld id="{2F472622-5BFA-4BEE-8D54-F4071F7D43AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7258,7 +7258,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9F9593B-8662-43A6-A0E6-E9DE40E8AFD7}" type="CELLRANGE">
+                    <a:fld id="{53CA9F3C-D496-413B-8411-3CA746D9C8C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7749,7 +7749,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nb-NO" sz="1200" b="1"/>
-                  <a:t>Precision</a:t>
+                  <a:t>Certainty</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8779,7 +8779,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/mop/pareto_under_cap_label.xlsx
+++ b/results/mop/pareto_under_cap_label.xlsx
@@ -4236,7 +4236,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C387AA3B-2034-48E1-A14A-B31A8D1BD330}" type="CELLRANGE">
+                    <a:fld id="{E3CDAF4C-353A-4903-8BA6-A7B1BF4BFC1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4455,7 +4455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2081A127-7A91-4C44-A754-D8CBC8BE4CB6}" type="CELLRANGE">
+                    <a:fld id="{947F3420-E000-4616-B4EF-B0685809C8CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5006,7 +5006,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50309CAB-0EB8-4886-9FB3-95084C88B4D4}" type="CELLRANGE">
+                    <a:fld id="{8FEC02B6-67DD-4481-874E-A7A67167FD3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5046,7 +5046,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF28100C-6342-4F3A-AA97-C1CF422A3C39}" type="CELLRANGE">
+                    <a:fld id="{DAD5640F-8295-4826-A91D-63063A2DE3C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5086,7 +5086,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61164F22-DCB1-4BE9-B0A5-1575A3F57057}" type="CELLRANGE">
+                    <a:fld id="{27DD2BF6-111E-4BA4-BD5F-72F15A645E6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5443,7 +5443,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A6BBCF9-3D40-4359-A417-D70BF5645992}" type="CELLRANGE">
+                    <a:fld id="{31E6AA11-F20F-451B-8CC0-768FF7C07393}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5634,7 +5634,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{353207CB-942B-4C0F-BABC-3C599D9461D1}" type="CELLRANGE">
+                    <a:fld id="{12B570B2-1968-4DB5-925A-011CB87629B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5675,7 +5675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE2C7911-998F-49B8-AC7F-E6A5A223348C}" type="CELLRANGE">
+                    <a:fld id="{4D70C368-6CC5-4003-A02B-69298954DEB3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5716,7 +5716,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75FBC5BB-7BA8-4AA2-B976-BFA3650E92C5}" type="CELLRANGE">
+                    <a:fld id="{26A32D70-3022-41F7-B896-6E1D719ACC58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5757,7 +5757,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{394FB20D-C179-4117-8F43-562CCDBDE1C6}" type="CELLRANGE">
+                    <a:fld id="{44CBB7DB-4D8F-4046-B0EF-EEE81000507E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6116,7 +6116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71ABFB8E-38DD-4B5E-8EAE-6823F70C1423}" type="CELLRANGE">
+                    <a:fld id="{29C142B4-10B3-453A-AA6E-E452BD63583F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6275,7 +6275,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57B67BF6-2DA0-4F6B-B684-7BD1164A290B}" type="CELLRANGE">
+                    <a:fld id="{0CC63FD4-6D42-405C-AAFE-B3C410DC9ADB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6314,7 +6314,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B9CDFE1-1F51-43CC-9C7B-735B6FDE21C6}" type="CELLRANGE">
+                    <a:fld id="{BD3B5DAA-96B1-473F-872A-83D9F6CBF219}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6353,7 +6353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83F432AF-37F4-416B-8460-670C86F4344B}" type="CELLRANGE">
+                    <a:fld id="{43F116C8-2E5F-428C-B82D-DF884694F3D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6392,7 +6392,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9A4755D-F046-4D25-B837-149EAF161F87}" type="CELLRANGE">
+                    <a:fld id="{9E426517-E1CE-4A67-AD91-B295955E20CE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6431,7 +6431,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61C23DB7-B7C8-40C8-BECB-AF8528957B58}" type="CELLRANGE">
+                    <a:fld id="{6FB7CE6C-29D2-4F44-8D7B-F31D6FD73937}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6470,7 +6470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C21EBC53-62FF-4FA3-B010-41817608C40F}" type="CELLRANGE">
+                    <a:fld id="{8C41A89F-63D6-44A4-8FF3-2110267BC5BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6509,7 +6509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EB478C5-B741-457F-BB36-32D65052DD62}" type="CELLRANGE">
+                    <a:fld id="{E46A9937-1569-47BF-8BC1-4DD2576FEACA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6866,7 +6866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33E49BAD-2D62-4073-9194-27C0AF94B243}" type="CELLRANGE">
+                    <a:fld id="{89767F91-42D0-4BAD-842B-235849DBC664}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7026,7 +7026,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C852733-8328-46F7-A01D-4DAB29FEC61A}" type="CELLRANGE">
+                    <a:fld id="{583FA9B1-E434-44FE-A8A7-97498C672B71}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7066,7 +7066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3818439-0D38-4AF5-A35C-8644F031D1EB}" type="CELLRANGE">
+                    <a:fld id="{49785344-D40C-4B12-9B34-98BBE41D635F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7106,7 +7106,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16E19163-4939-4647-9AF6-C23BCEFC495C}" type="CELLRANGE">
+                    <a:fld id="{40CDA220-ACF2-422E-8362-858B5DF991A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7146,7 +7146,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07C39751-EC2B-4EDD-B77E-5D4F3ED07B22}" type="CELLRANGE">
+                    <a:fld id="{180CE1DA-B591-4B48-8E17-3114EE5A2A33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7186,7 +7186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F14A73A-AD29-40E5-BFA3-D062A99329CE}" type="CELLRANGE">
+                    <a:fld id="{1575A282-C178-49A7-AAE0-3FEB4B7E812F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7226,7 +7226,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96621CDC-591D-4421-8309-09BE705B4269}" type="CELLRANGE">
+                    <a:fld id="{FCE929A5-80D0-45D4-AECF-AA10334FE229}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7266,7 +7266,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{772408B7-2B55-474C-ADDB-585C2D39FE79}" type="CELLRANGE">
+                    <a:fld id="{5F58A09E-8332-446E-A1C4-4721724072E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12197,7 +12197,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nb-NO" sz="1200" b="1"/>
-                  <a:t>Oil output</a:t>
+                  <a:t>Oil output [Sm3/h]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -13935,7 +13935,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55774,15 +55774,15 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>B3</f>
+        <f t="shared" ref="AM3:AM34" si="0">B3</f>
         <v>28.7533332910537</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" ref="AN3:AN66" si="0">(MAX($AO:$AO)-AO3)/MAX($AO:$AO)</f>
+        <f t="shared" ref="AN3:AN66" si="1">(MAX($AO:$AO)-AO3)/MAX($AO:$AO)</f>
         <v>0.99117230177510518</v>
       </c>
       <c r="AO3">
-        <f t="shared" ref="AO3:AO66" si="1">SUM(AF3:AL3)</f>
+        <f t="shared" ref="AO3:AO66" si="2">SUM(AF3:AL3)</f>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP3">
@@ -55906,15 +55906,15 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>28.7533332910537</v>
       </c>
       <c r="AN4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510518</v>
       </c>
       <c r="AO4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP4">
@@ -56038,15 +56038,15 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>28.7533332910537</v>
       </c>
       <c r="AN5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510518</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP5">
@@ -56170,15 +56170,15 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>28.7533332910537</v>
       </c>
       <c r="AN6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510518</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP6">
@@ -56302,15 +56302,15 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>28.7533332910537</v>
       </c>
       <c r="AN7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510518</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP7">
@@ -56434,15 +56434,15 @@
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>28.7533332910537</v>
       </c>
       <c r="AN8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510518</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP8">
@@ -56566,15 +56566,15 @@
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>B9</f>
+        <f t="shared" si="0"/>
         <v>28.7533332910537</v>
       </c>
       <c r="AN9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510518</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP9">
@@ -56698,15 +56698,15 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>B10</f>
+        <f t="shared" si="0"/>
         <v>28.7533332910537</v>
       </c>
       <c r="AN10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510518</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP10">
@@ -56830,15 +56830,15 @@
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>B11</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581201</v>
       </c>
       <c r="AN11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP11">
@@ -56962,15 +56962,15 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581201</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP12">
@@ -57094,15 +57094,15 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <f>B13</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581201</v>
       </c>
       <c r="AN13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP13">
@@ -57226,15 +57226,15 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <f>B14</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581201</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP14">
@@ -57358,15 +57358,15 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <f>B15</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581201</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP15">
@@ -57490,15 +57490,15 @@
         <v>0</v>
       </c>
       <c r="AM16">
-        <f>B16</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581201</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP16">
@@ -57622,15 +57622,15 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <f>B17</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581201</v>
       </c>
       <c r="AN17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP17">
@@ -57754,15 +57754,15 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <f>B18</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581201</v>
       </c>
       <c r="AN18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP18">
@@ -57886,15 +57886,15 @@
         <v>0</v>
       </c>
       <c r="AM19">
-        <f>B19</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581201</v>
       </c>
       <c r="AN19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP19">
@@ -58018,15 +58018,15 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <f>B20</f>
+        <f t="shared" si="0"/>
         <v>28.753333559578898</v>
       </c>
       <c r="AN20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510507</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530704</v>
       </c>
       <c r="AP20">
@@ -58150,15 +58150,15 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <f>B21</f>
+        <f t="shared" si="0"/>
         <v>28.753333559578898</v>
       </c>
       <c r="AN21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510507</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530704</v>
       </c>
       <c r="AP21">
@@ -58282,15 +58282,15 @@
         <v>0</v>
       </c>
       <c r="AM22">
-        <f>B22</f>
+        <f t="shared" si="0"/>
         <v>28.753333559578898</v>
       </c>
       <c r="AN22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510507</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530704</v>
       </c>
       <c r="AP22">
@@ -58414,15 +58414,15 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <f>B23</f>
+        <f t="shared" si="0"/>
         <v>28.753333559578898</v>
       </c>
       <c r="AN23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510507</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530704</v>
       </c>
       <c r="AP23">
@@ -58546,15 +58546,15 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <f>B24</f>
+        <f t="shared" si="0"/>
         <v>28.753333559578898</v>
       </c>
       <c r="AN24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510507</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530704</v>
       </c>
       <c r="AP24">
@@ -58678,15 +58678,15 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <f>B25</f>
+        <f t="shared" si="0"/>
         <v>28.753333559578898</v>
       </c>
       <c r="AN25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510507</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530704</v>
       </c>
       <c r="AP25">
@@ -58810,15 +58810,15 @@
         <v>0</v>
       </c>
       <c r="AM26">
-        <f>B26</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581201</v>
       </c>
       <c r="AN26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510518</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530145</v>
       </c>
       <c r="AP26">
@@ -58942,15 +58942,15 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <f>B27</f>
+        <f t="shared" si="0"/>
         <v>28.7533335595786</v>
       </c>
       <c r="AN27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP27">
@@ -59074,15 +59074,15 @@
         <v>0</v>
       </c>
       <c r="AM28">
-        <f>B28</f>
+        <f t="shared" si="0"/>
         <v>28.7533335595806</v>
       </c>
       <c r="AN28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510507</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.80765309</v>
       </c>
       <c r="AP28">
@@ -59206,15 +59206,15 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <f>B29</f>
+        <f t="shared" si="0"/>
         <v>28.753333559578799</v>
       </c>
       <c r="AN29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP29">
@@ -59338,15 +59338,15 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <f>B30</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581701</v>
       </c>
       <c r="AN30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510507</v>
       </c>
       <c r="AO30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076530704</v>
       </c>
       <c r="AP30">
@@ -59470,15 +59470,15 @@
         <v>0</v>
       </c>
       <c r="AM31">
-        <f>B31</f>
+        <f t="shared" si="0"/>
         <v>28.753333559581701</v>
       </c>
       <c r="AN31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531002</v>
       </c>
       <c r="AP31">
@@ -59602,15 +59602,15 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <f>B32</f>
+        <f t="shared" si="0"/>
         <v>28.753333559583201</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99117230177510496</v>
       </c>
       <c r="AO32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP32">
@@ -59734,15 +59734,15 @@
         <v>0</v>
       </c>
       <c r="AM33">
-        <f>B33</f>
+        <f t="shared" si="0"/>
         <v>46.789248851355197</v>
       </c>
       <c r="AN33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97168189024090079</v>
       </c>
       <c r="AO33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14276401.000305699</v>
       </c>
       <c r="AP33">
@@ -59866,15 +59866,15 @@
         <v>0</v>
       </c>
       <c r="AM34">
-        <f>B34</f>
+        <f t="shared" si="0"/>
         <v>47.345647237241401</v>
       </c>
       <c r="AN34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97168189024090068</v>
       </c>
       <c r="AO34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14276401.000305787</v>
       </c>
       <c r="AP34">
@@ -59998,15 +59998,15 @@
         <v>0</v>
       </c>
       <c r="AM35">
-        <f>B35</f>
+        <f t="shared" ref="AM35:AM66" si="3">B35</f>
         <v>46.789248851357897</v>
       </c>
       <c r="AN35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97168189024089924</v>
       </c>
       <c r="AO35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14276401.0003065</v>
       </c>
       <c r="AP35">
@@ -60130,15 +60130,15 @@
         <v>0</v>
       </c>
       <c r="AM36">
-        <f>B36</f>
+        <f t="shared" si="3"/>
         <v>46.789248851353499</v>
       </c>
       <c r="AN36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97168189024090079</v>
       </c>
       <c r="AO36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14276401.000305699</v>
       </c>
       <c r="AP36">
@@ -60262,15 +60262,15 @@
         <v>0</v>
       </c>
       <c r="AM37">
-        <f>B37</f>
+        <f t="shared" si="3"/>
         <v>46.8001928551557</v>
       </c>
       <c r="AN37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9716818903794292</v>
       </c>
       <c r="AO37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14276400.930467479</v>
       </c>
       <c r="AP37">
@@ -60394,15 +60394,15 @@
         <v>0</v>
       </c>
       <c r="AM38">
-        <f>B38</f>
+        <f t="shared" si="3"/>
         <v>46.660646820724999</v>
       </c>
       <c r="AN38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97168189024090079</v>
       </c>
       <c r="AO38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14276401.000305708</v>
       </c>
       <c r="AP38">
@@ -60526,15 +60526,15 @@
         <v>0</v>
       </c>
       <c r="AM39">
-        <f>B39</f>
+        <f t="shared" si="3"/>
         <v>47.672480824921799</v>
       </c>
       <c r="AN39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9589586229646816</v>
       </c>
       <c r="AO39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20690758.004166357</v>
       </c>
       <c r="AP39">
@@ -60658,15 +60658,15 @@
         <v>0</v>
       </c>
       <c r="AM40">
-        <f>B40</f>
+        <f t="shared" si="3"/>
         <v>53.885002852738097</v>
       </c>
       <c r="AN40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94209035536259167</v>
       </c>
       <c r="AO40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29194791.448366169</v>
       </c>
       <c r="AP40">
@@ -60790,15 +60790,15 @@
         <v>0</v>
       </c>
       <c r="AM41">
-        <f>B41</f>
+        <f t="shared" si="3"/>
         <v>53.885002852738097</v>
       </c>
       <c r="AN41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.942090355362592</v>
       </c>
       <c r="AO41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29194791.448366031</v>
       </c>
       <c r="AP41">
@@ -60922,15 +60922,15 @@
         <v>0</v>
       </c>
       <c r="AM42">
-        <f>B42</f>
+        <f t="shared" si="3"/>
         <v>53.885002852738197</v>
       </c>
       <c r="AN42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94209035536259178</v>
       </c>
       <c r="AO42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29194791.44836612</v>
       </c>
       <c r="AP42">
@@ -61054,15 +61054,15 @@
         <v>0</v>
       </c>
       <c r="AM43">
-        <f>B43</f>
+        <f t="shared" si="3"/>
         <v>53.8850028527416</v>
       </c>
       <c r="AN43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94209035536259167</v>
       </c>
       <c r="AO43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29194791.448366169</v>
       </c>
       <c r="AP43">
@@ -61186,15 +61186,15 @@
         <v>0</v>
       </c>
       <c r="AM44">
-        <f>B44</f>
+        <f t="shared" si="3"/>
         <v>54.2936587186609</v>
       </c>
       <c r="AN44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94100248713103918</v>
       </c>
       <c r="AO44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29743233.531586342</v>
       </c>
       <c r="AP44">
@@ -61318,15 +61318,15 @@
         <v>0</v>
       </c>
       <c r="AM45">
-        <f>B45</f>
+        <f t="shared" si="3"/>
         <v>55.617894297408697</v>
       </c>
       <c r="AN45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93746789552524767</v>
       </c>
       <c r="AO45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31525176.167089388</v>
       </c>
       <c r="AP45">
@@ -61450,15 +61450,15 @@
         <v>0</v>
       </c>
       <c r="AM46">
-        <f>B46</f>
+        <f t="shared" si="3"/>
         <v>56.9421298761564</v>
       </c>
       <c r="AN46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9339333039194504</v>
       </c>
       <c r="AO46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33307118.802595329</v>
       </c>
       <c r="AP46">
@@ -61582,15 +61582,15 @@
         <v>0</v>
       </c>
       <c r="AM47">
-        <f>B47</f>
+        <f t="shared" si="3"/>
         <v>61.984260698491497</v>
       </c>
       <c r="AN47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93167983990938941</v>
       </c>
       <c r="AO47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34443188.834142938</v>
       </c>
       <c r="AP47">
@@ -61714,15 +61714,15 @@
         <v>0</v>
       </c>
       <c r="AM48">
-        <f>B48</f>
+        <f t="shared" si="3"/>
         <v>62.189360337544599</v>
       </c>
       <c r="AN48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9316798399093893</v>
       </c>
       <c r="AO48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34443188.83414299</v>
       </c>
       <c r="AP48">
@@ -61846,15 +61846,15 @@
         <v>0</v>
       </c>
       <c r="AM49">
-        <f>B49</f>
+        <f t="shared" si="3"/>
         <v>62.250046580772597</v>
       </c>
       <c r="AN49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9316798399093893</v>
       </c>
       <c r="AO49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34443188.834142998</v>
       </c>
       <c r="AP49">
@@ -61978,15 +61978,15 @@
         <v>0</v>
       </c>
       <c r="AM50">
-        <f>B50</f>
+        <f t="shared" si="3"/>
         <v>62.250046580773201</v>
       </c>
       <c r="AN50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9316798399093893</v>
       </c>
       <c r="AO50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34443188.834142998</v>
       </c>
       <c r="AP50">
@@ -62110,15 +62110,15 @@
         <v>0</v>
       </c>
       <c r="AM51">
-        <f>B51</f>
+        <f t="shared" si="3"/>
         <v>63.563307769895701</v>
       </c>
       <c r="AN51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92819269939286464</v>
       </c>
       <c r="AO51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36201209.294612542</v>
       </c>
       <c r="AP51">
@@ -62242,15 +62242,15 @@
         <v>0</v>
       </c>
       <c r="AM52">
-        <f>B52</f>
+        <f t="shared" si="3"/>
         <v>64.887543348643504</v>
       </c>
       <c r="AN52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92465810778710034</v>
       </c>
       <c r="AO52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37983151.930101871</v>
       </c>
       <c r="AP52">
@@ -62374,15 +62374,15 @@
         <v>0</v>
       </c>
       <c r="AM53">
-        <f>B53</f>
+        <f t="shared" si="3"/>
         <v>66.211778927391407</v>
       </c>
       <c r="AN53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92094337643435542</v>
       </c>
       <c r="AO53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39855910.911945745</v>
       </c>
       <c r="AP53">
@@ -62506,15 +62506,15 @@
         <v>0</v>
       </c>
       <c r="AM54">
-        <f>B54</f>
+        <f t="shared" si="3"/>
         <v>67.536014506139196</v>
       </c>
       <c r="AN54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91758892457548746</v>
       </c>
       <c r="AO54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41547037.201123036</v>
       </c>
       <c r="AP54">
@@ -62638,15 +62638,15 @@
         <v>0</v>
       </c>
       <c r="AM55">
-        <f>B55</f>
+        <f t="shared" si="3"/>
         <v>67.860250094886993</v>
       </c>
       <c r="AN55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9167234891433762</v>
       </c>
       <c r="AO55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41983341.155511215</v>
       </c>
       <c r="AP55">
@@ -62770,15 +62770,15 @@
         <v>0</v>
       </c>
       <c r="AM56">
-        <f>B56</f>
+        <f t="shared" si="3"/>
         <v>69.184485673635606</v>
       </c>
       <c r="AN56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91581774982222131</v>
       </c>
       <c r="AO56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42439964.067864969</v>
       </c>
       <c r="AP56">
@@ -62902,15 +62902,15 @@
         <v>0</v>
       </c>
       <c r="AM57">
-        <f>B57</f>
+        <f t="shared" si="3"/>
         <v>70.508721252382699</v>
       </c>
       <c r="AN57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91471515573554563</v>
       </c>
       <c r="AO57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42995830.10044466</v>
       </c>
       <c r="AP57">
@@ -63034,15 +63034,15 @@
         <v>0</v>
       </c>
       <c r="AM58">
-        <f>B58</f>
+        <f t="shared" si="3"/>
         <v>71.832956831130403</v>
       </c>
       <c r="AN58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90692666920444365</v>
       </c>
       <c r="AO58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46922347.719360329</v>
       </c>
       <c r="AP58">
@@ -63166,15 +63166,15 @@
         <v>0</v>
       </c>
       <c r="AM59">
-        <f>B59</f>
+        <f t="shared" si="3"/>
         <v>73.157192409879102</v>
       </c>
       <c r="AN59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87633847782449348</v>
       </c>
       <c r="AO59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62343196.417566463</v>
       </c>
       <c r="AP59">
@@ -63298,15 +63298,15 @@
         <v>0</v>
       </c>
       <c r="AM60">
-        <f>B60</f>
+        <f t="shared" si="3"/>
         <v>74.481427988626095</v>
       </c>
       <c r="AN60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87075524495116663</v>
       </c>
       <c r="AO60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65157948.95775295</v>
       </c>
       <c r="AP60">
@@ -63430,15 +63430,15 @@
         <v>7.6436634799392693E-6</v>
       </c>
       <c r="AM61">
-        <f>B61</f>
+        <f t="shared" si="3"/>
         <v>75.805663567374296</v>
       </c>
       <c r="AN61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86559686969095884</v>
       </c>
       <c r="AO61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67758512.14333491</v>
       </c>
       <c r="AP61">
@@ -63562,15 +63562,15 @@
         <v>0</v>
       </c>
       <c r="AM62">
-        <f>B62</f>
+        <f t="shared" si="3"/>
         <v>77.129899146121801</v>
       </c>
       <c r="AN62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86273054816691774</v>
       </c>
       <c r="AO62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69203550.524114162</v>
       </c>
       <c r="AP62">
@@ -63694,15 +63694,15 @@
         <v>0</v>
       </c>
       <c r="AM63">
-        <f>B63</f>
+        <f t="shared" si="3"/>
         <v>78.454134724869604</v>
       </c>
       <c r="AN63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8594774765742208</v>
       </c>
       <c r="AO63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70843566.575154454</v>
       </c>
       <c r="AP63">
@@ -63826,15 +63826,15 @@
         <v>31913869.282268099</v>
       </c>
       <c r="AM64">
-        <f>B64</f>
+        <f t="shared" si="3"/>
         <v>80.106830951273807</v>
       </c>
       <c r="AN64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85251464891090201</v>
       </c>
       <c r="AO64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74353833.350133002</v>
       </c>
       <c r="AP64">
@@ -63958,15 +63958,15 @@
         <v>34345273.698064104</v>
       </c>
       <c r="AM65">
-        <f>B65</f>
+        <f t="shared" si="3"/>
         <v>81.102605882366106</v>
       </c>
       <c r="AN65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84766868334861256</v>
       </c>
       <c r="AO65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76796897.106487244</v>
       </c>
       <c r="AP65">
@@ -64090,15 +64090,15 @@
         <v>37498874.4177</v>
       </c>
       <c r="AM66">
-        <f>B66</f>
+        <f t="shared" si="3"/>
         <v>82.426841461113099</v>
       </c>
       <c r="AN66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83964874599872941</v>
       </c>
       <c r="AO66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80840099.23326309</v>
       </c>
       <c r="AP66">
@@ -64222,15 +64222,15 @@
         <v>0</v>
       </c>
       <c r="AM67">
-        <f>B67</f>
+        <f t="shared" ref="AM67:AM103" si="4">B67</f>
         <v>74.751077039860803</v>
       </c>
       <c r="AN67" s="2">
-        <f t="shared" ref="AN67:AN102" si="2">(MAX($AO:$AO)-AO67)/MAX($AO:$AO)</f>
+        <f t="shared" ref="AN67:AN102" si="5">(MAX($AO:$AO)-AO67)/MAX($AO:$AO)</f>
         <v>0.86959320251260752</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO102" si="3">SUM(AF67:AL67)</f>
+        <f t="shared" ref="AO67:AO102" si="6">SUM(AF67:AL67)</f>
         <v>65743785.51158265</v>
       </c>
       <c r="AP67">
@@ -64354,15 +64354,15 @@
         <v>0</v>
       </c>
       <c r="AM68">
-        <f>B68</f>
+        <f t="shared" si="4"/>
         <v>76.075312618608805</v>
       </c>
       <c r="AN68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.86498692811562805</v>
       </c>
       <c r="AO68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>68066010.440017074</v>
       </c>
       <c r="AP68">
@@ -64486,15 +64486,15 @@
         <v>0</v>
       </c>
       <c r="AM69">
-        <f>B69</f>
+        <f t="shared" si="4"/>
         <v>77.399548197356594</v>
       </c>
       <c r="AN69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.86230641042050371</v>
       </c>
       <c r="AO69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>69417376.962343365</v>
       </c>
       <c r="AP69">
@@ -64618,15 +64618,15 @@
         <v>0</v>
       </c>
       <c r="AM70">
-        <f>B70</f>
+        <f t="shared" si="4"/>
         <v>78.723783776104398</v>
       </c>
       <c r="AN70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85742801056885043</v>
       </c>
       <c r="AO70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>71876792.266348839</v>
       </c>
       <c r="AP70">
@@ -64750,15 +64750,15 @@
         <v>31913869.282268099</v>
       </c>
       <c r="AM71">
-        <f>B71</f>
+        <f t="shared" si="4"/>
         <v>80.100027779110405</v>
       </c>
       <c r="AN71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85251464891090167</v>
       </c>
       <c r="AO71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>74353833.350133181</v>
       </c>
       <c r="AP71">
@@ -64882,15 +64882,15 @@
         <v>35123947.222488597</v>
       </c>
       <c r="AM72">
-        <f>B72</f>
+        <f t="shared" si="4"/>
         <v>81.372254933600104</v>
       </c>
       <c r="AN72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.84612413704938494</v>
       </c>
       <c r="AO72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>77575570.630917206</v>
       </c>
       <c r="AP72">
@@ -65014,15 +65014,15 @@
         <v>33942314.644691199</v>
       </c>
       <c r="AM73">
-        <f>B73</f>
+        <f t="shared" si="4"/>
         <v>82.696490512347907</v>
       </c>
       <c r="AN73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.83807925565917296</v>
       </c>
       <c r="AO73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>81631348.142326087</v>
       </c>
       <c r="AP73">
@@ -65146,15 +65146,15 @@
         <v>37867340.838713698</v>
       </c>
       <c r="AM74">
-        <f>B74</f>
+        <f t="shared" si="4"/>
         <v>84.020726091095696</v>
       </c>
       <c r="AN74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.83028866758304487</v>
       </c>
       <c r="AO74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>85558925.242251188</v>
       </c>
       <c r="AP74">
@@ -65278,15 +65278,15 @@
         <v>48014147.619525596</v>
       </c>
       <c r="AM75">
-        <f>B75</f>
+        <f t="shared" si="4"/>
         <v>85.344961669843599</v>
       </c>
       <c r="AN75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.82013196480950656</v>
       </c>
       <c r="AO75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>90679364.525433168</v>
       </c>
       <c r="AP75">
@@ -65410,15 +65410,15 @@
         <v>48014147.619525596</v>
       </c>
       <c r="AM76">
-        <f>B76</f>
+        <f t="shared" si="4"/>
         <v>86.669197248591004</v>
       </c>
       <c r="AN76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.81217874478293872</v>
       </c>
       <c r="AO76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>94688931.523684561</v>
       </c>
       <c r="AP76">
@@ -65542,15 +65542,15 @@
         <v>31913869.282268099</v>
       </c>
       <c r="AM77">
-        <f>B77</f>
+        <f t="shared" si="4"/>
         <v>87.993432827339902</v>
       </c>
       <c r="AN77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.79767576280642494</v>
       </c>
       <c r="AO77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>102000520.7560975</v>
       </c>
       <c r="AP77">
@@ -65674,15 +65674,15 @@
         <v>35270685.2364095</v>
       </c>
       <c r="AM78">
-        <f>B78</f>
+        <f t="shared" si="4"/>
         <v>89.317668406087094</v>
       </c>
       <c r="AN78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.79098160805364537</v>
       </c>
       <c r="AO78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>105375337.73441206</v>
       </c>
       <c r="AP78">
@@ -65806,15 +65806,15 @@
         <v>34082812.498865403</v>
       </c>
       <c r="AM79">
-        <f>B79</f>
+        <f t="shared" si="4"/>
         <v>90.641903984834897</v>
       </c>
       <c r="AN79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.78294404452282318</v>
       </c>
       <c r="AO79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>109427425.991983</v>
       </c>
       <c r="AP79">
@@ -65938,15 +65938,15 @@
         <v>38074312.297818303</v>
       </c>
       <c r="AM80">
-        <f>B80</f>
+        <f t="shared" si="4"/>
         <v>91.966139563582701</v>
       </c>
       <c r="AN80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.77502666188501612</v>
       </c>
       <c r="AO80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>113418925.79093663</v>
       </c>
       <c r="AP80">
@@ -66070,15 +66070,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM81">
-        <f>B81</f>
+        <f t="shared" si="4"/>
         <v>93.290375142330504</v>
       </c>
       <c r="AN81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.7648941729961124</v>
       </c>
       <c r="AO81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>118527157.79299149</v>
       </c>
       <c r="AP81">
@@ -66202,15 +66202,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM82">
-        <f>B82</f>
+        <f t="shared" si="4"/>
         <v>94.614610721078407</v>
       </c>
       <c r="AN82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.75703803211134479</v>
       </c>
       <c r="AO82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>122487782.93852401</v>
       </c>
       <c r="AP82">
@@ -66334,15 +66334,15 @@
         <v>37253179.867733203</v>
       </c>
       <c r="AM83">
-        <f>B83</f>
+        <f t="shared" si="4"/>
         <v>95.938846299826196</v>
       </c>
       <c r="AN83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.73992760719770068</v>
       </c>
       <c r="AO83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>131113898.50311649</v>
       </c>
       <c r="AP83">
@@ -66466,15 +66466,15 @@
         <v>47674785.868698597</v>
       </c>
       <c r="AM84">
-        <f>B84</f>
+        <f t="shared" si="4"/>
         <v>97.263081878573999</v>
       </c>
       <c r="AN84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.72964949915035471</v>
       </c>
       <c r="AO84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>136295543.50896764</v>
       </c>
       <c r="AP84">
@@ -66598,15 +66598,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM85">
-        <f>B85</f>
+        <f t="shared" si="4"/>
         <v>98.587317457321802</v>
       </c>
       <c r="AN85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.72159870806650916</v>
       </c>
       <c r="AO85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>140354300.35610268</v>
       </c>
       <c r="AP85">
@@ -66730,15 +66730,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM86">
-        <f>B86</f>
+        <f t="shared" si="4"/>
         <v>99.911553036069705</v>
       </c>
       <c r="AN86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.70970143391421847</v>
       </c>
       <c r="AO86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>146352238.00284469</v>
       </c>
       <c r="AP86">
@@ -66862,15 +66862,15 @@
         <v>34763756.451272301</v>
       </c>
       <c r="AM87">
-        <f>B87</f>
+        <f t="shared" si="4"/>
         <v>101.235788614817</v>
       </c>
       <c r="AN87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.70040784610518581</v>
       </c>
       <c r="AO87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>151037543.1811209</v>
       </c>
       <c r="AP87">
@@ -66994,15 +66994,15 @@
         <v>33575883.713719897</v>
       </c>
       <c r="AM88">
-        <f>B88</f>
+        <f t="shared" si="4"/>
         <v>102.560024193565</v>
       </c>
       <c r="AN88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.69237028257438316</v>
       </c>
       <c r="AO88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>155089631.43868199</v>
       </c>
       <c r="AP88">
@@ -67126,15 +67126,15 @@
         <v>37399917.881653003</v>
       </c>
       <c r="AM89">
-        <f>B89</f>
+        <f t="shared" si="4"/>
         <v>103.884259772313</v>
       </c>
       <c r="AN89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.68478507820196077</v>
       </c>
       <c r="AO89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>158913665.60661152</v>
       </c>
       <c r="AP89">
@@ -67258,15 +67258,15 @@
         <v>47818744.076536201</v>
       </c>
       <c r="AM90">
-        <f>B90</f>
+        <f t="shared" si="4"/>
         <v>105.208495351061</v>
       </c>
       <c r="AN90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.67451248406905429</v>
       </c>
       <c r="AO90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>164092530.80638483</v>
       </c>
       <c r="AP90">
@@ -67390,15 +67390,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM91">
-        <f>B91</f>
+        <f t="shared" si="4"/>
         <v>106.532730929808</v>
       </c>
       <c r="AN91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.66645815361066041</v>
       </c>
       <c r="AO91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>168153072.00744644</v>
       </c>
       <c r="AP91">
@@ -67522,15 +67522,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM92">
-        <f>B92</f>
+        <f t="shared" si="4"/>
         <v>107.856966508556</v>
       </c>
       <c r="AN92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.65422307372807176</v>
       </c>
       <c r="AO92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>174321312.33706391</v>
       </c>
       <c r="AP92">
@@ -67654,15 +67654,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM93">
-        <f>B93</f>
+        <f t="shared" si="4"/>
         <v>109.181202087304</v>
       </c>
       <c r="AN93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.63499812699599856</v>
       </c>
       <c r="AO93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>184013451.08119047</v>
       </c>
       <c r="AP93">
@@ -67786,15 +67786,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM94">
-        <f>B94</f>
+        <f t="shared" si="4"/>
         <v>110.505437666052</v>
       </c>
       <c r="AN94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.62390942018045437</v>
       </c>
       <c r="AO94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>189603754.47432795</v>
       </c>
       <c r="AP94">
@@ -67918,15 +67918,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM95">
-        <f>B95</f>
+        <f t="shared" si="4"/>
         <v>111.829673244799</v>
       </c>
       <c r="AN95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61356345916541577</v>
       </c>
       <c r="AO95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>194819607.13683701</v>
       </c>
       <c r="AP95">
@@ -68050,15 +68050,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM96">
-        <f>B96</f>
+        <f t="shared" si="4"/>
         <v>113.15390882354799</v>
       </c>
       <c r="AN96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.60271847175343551</v>
       </c>
       <c r="AO96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>200287040.89049521</v>
       </c>
       <c r="AP96">
@@ -68182,15 +68182,15 @@
         <v>48014147.619525596</v>
       </c>
       <c r="AM97">
-        <f>B97</f>
+        <f t="shared" si="4"/>
         <v>114.478144402295</v>
       </c>
       <c r="AN97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.58877499258039934</v>
       </c>
       <c r="AO97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>207316560.22307402</v>
       </c>
       <c r="AP97">
@@ -68314,15 +68314,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM98">
-        <f>B98</f>
+        <f t="shared" si="4"/>
         <v>115.802379981043</v>
       </c>
       <c r="AN98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.5786716302075372</v>
       </c>
       <c r="AO98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>212410108.2710695</v>
       </c>
       <c r="AP98">
@@ -68446,15 +68446,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM99">
-        <f>B99</f>
+        <f t="shared" si="4"/>
         <v>117.12661555979101</v>
       </c>
       <c r="AN99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.56787021071573351</v>
       </c>
       <c r="AO99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>217855577.52552629</v>
       </c>
       <c r="AP99">
@@ -68578,15 +68578,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM100">
-        <f>B100</f>
+        <f t="shared" si="4"/>
         <v>118.45085113853899</v>
       </c>
       <c r="AN100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.55364671453806125</v>
       </c>
       <c r="AO100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>225026265.71009049</v>
       </c>
       <c r="AP100">
@@ -68710,15 +68710,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM101">
-        <f>B101</f>
+        <f t="shared" si="4"/>
         <v>119.775086717287</v>
       </c>
       <c r="AN101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.52135442174506741</v>
       </c>
       <c r="AO101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>241306226.66277826</v>
       </c>
       <c r="AP101">
@@ -68842,15 +68842,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM102">
-        <f>B102</f>
+        <f t="shared" si="4"/>
         <v>121.099322296034</v>
       </c>
       <c r="AN102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.45875096368019241</v>
       </c>
       <c r="AO102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>272867375.30380988</v>
       </c>
       <c r="AP102">
@@ -68974,7 +68974,7 @@
         <v>112294813.886721</v>
       </c>
       <c r="AM103">
-        <f>B103</f>
+        <f t="shared" si="4"/>
         <v>132.42355787478201</v>
       </c>
       <c r="AN103" s="2">
@@ -69249,7 +69249,7 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>B3</f>
+        <f t="shared" ref="AM3:AM34" si="0">B3</f>
         <v>2.2778759864196598E-12</v>
       </c>
       <c r="AN3" s="2">
@@ -69257,7 +69257,7 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="AO3">
-        <f t="shared" ref="AO3:AO66" si="0">SUM(AF3:AL3)</f>
+        <f t="shared" ref="AO3:AO66" si="1">SUM(AF3:AL3)</f>
         <v>-6.6123902797698895E-8</v>
       </c>
       <c r="AP3" s="2">
@@ -69381,15 +69381,15 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN4" s="2">
-        <f t="shared" ref="AN4:AN66" si="1">(MAX($AO:$AO)-AO4)/MAX($AO:$AO)</f>
+        <f t="shared" ref="AN4:AN66" si="2">(MAX($AO:$AO)-AO4)/MAX($AO:$AO)</f>
         <v>0.99117211864925847</v>
       </c>
       <c r="AO4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP4" s="2">
@@ -69513,15 +69513,15 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO5">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP5" s="2">
@@ -69645,15 +69645,15 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO6">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO6">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP6" s="2">
@@ -69777,15 +69777,15 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO7">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO7">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP7" s="2">
@@ -69909,15 +69909,15 @@
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>35.382237871349297</v>
       </c>
       <c r="AN8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO8">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO8">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP8" s="2">
@@ -70041,15 +70041,15 @@
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>B9</f>
+        <f t="shared" si="0"/>
         <v>28.753333559586402</v>
       </c>
       <c r="AN9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO9">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO9">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP9" s="2">
@@ -70173,15 +70173,15 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>B10</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO10">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO10">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP10" s="2">
@@ -70305,15 +70305,15 @@
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>B11</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO11">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO11">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP11" s="2">
@@ -70437,15 +70437,15 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO12">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO12">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP12" s="2">
@@ -70569,15 +70569,15 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <f>B13</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO13">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO13">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP13" s="2">
@@ -70701,15 +70701,15 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <f>B14</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO14">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO14">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP14" s="2">
@@ -70833,15 +70833,15 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <f>B15</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO15">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO15">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP15" s="2">
@@ -70965,15 +70965,15 @@
         <v>0</v>
       </c>
       <c r="AM16">
-        <f>B16</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO16">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO16">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP16" s="2">
@@ -71097,15 +71097,15 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <f>B17</f>
+        <f t="shared" si="0"/>
         <v>35.382237871349197</v>
       </c>
       <c r="AN17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925869</v>
+      </c>
+      <c r="AO17">
         <f t="shared" si="1"/>
-        <v>0.99117211864925869</v>
-      </c>
-      <c r="AO17">
-        <f t="shared" si="0"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP17" s="2">
@@ -71229,15 +71229,15 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <f>B18</f>
+        <f t="shared" si="0"/>
         <v>35.382237871349197</v>
       </c>
       <c r="AN18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925869</v>
+      </c>
+      <c r="AO18">
         <f t="shared" si="1"/>
-        <v>0.99117211864925869</v>
-      </c>
-      <c r="AO18">
-        <f t="shared" si="0"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP18" s="2">
@@ -71361,15 +71361,15 @@
         <v>0</v>
       </c>
       <c r="AM19">
-        <f>B19</f>
+        <f t="shared" si="0"/>
         <v>35.382237871349197</v>
       </c>
       <c r="AN19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925869</v>
+      </c>
+      <c r="AO19">
         <f t="shared" si="1"/>
-        <v>0.99117211864925869</v>
-      </c>
-      <c r="AO19">
-        <f t="shared" si="0"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP19" s="2">
@@ -71493,15 +71493,15 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <f>B20</f>
+        <f t="shared" si="0"/>
         <v>28.753333559584</v>
       </c>
       <c r="AN20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925869</v>
+      </c>
+      <c r="AO20">
         <f t="shared" si="1"/>
-        <v>0.99117211864925869</v>
-      </c>
-      <c r="AO20">
-        <f t="shared" si="0"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP20" s="2">
@@ -71625,15 +71625,15 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <f>B21</f>
+        <f t="shared" si="0"/>
         <v>35.382237871349197</v>
       </c>
       <c r="AN21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925869</v>
+      </c>
+      <c r="AO21">
         <f t="shared" si="1"/>
-        <v>0.99117211864925869</v>
-      </c>
-      <c r="AO21">
-        <f t="shared" si="0"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP21" s="2">
@@ -71757,15 +71757,15 @@
         <v>0</v>
       </c>
       <c r="AM22">
-        <f>B22</f>
+        <f t="shared" si="0"/>
         <v>28.753333559584</v>
       </c>
       <c r="AN22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925869</v>
+      </c>
+      <c r="AO22">
         <f t="shared" si="1"/>
-        <v>0.99117211864925869</v>
-      </c>
-      <c r="AO22">
-        <f t="shared" si="0"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP22" s="2">
@@ -71889,15 +71889,15 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <f>B23</f>
+        <f t="shared" si="0"/>
         <v>28.753333559584</v>
       </c>
       <c r="AN23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925869</v>
+      </c>
+      <c r="AO23">
         <f t="shared" si="1"/>
-        <v>0.99117211864925869</v>
-      </c>
-      <c r="AO23">
-        <f t="shared" si="0"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP23" s="2">
@@ -72021,15 +72021,15 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <f>B24</f>
+        <f t="shared" si="0"/>
         <v>35.382237871349197</v>
       </c>
       <c r="AN24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925869</v>
+      </c>
+      <c r="AO24">
         <f t="shared" si="1"/>
-        <v>0.99117211864925869</v>
-      </c>
-      <c r="AO24">
-        <f t="shared" si="0"/>
         <v>4450429.8076530099</v>
       </c>
       <c r="AP24" s="2">
@@ -72153,15 +72153,15 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <f>B25</f>
+        <f t="shared" si="0"/>
         <v>34.697237454829903</v>
       </c>
       <c r="AN25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925836</v>
+      </c>
+      <c r="AO25">
         <f t="shared" si="1"/>
-        <v>0.99117211864925836</v>
-      </c>
-      <c r="AO25">
-        <f t="shared" si="0"/>
         <v>4450429.8076531896</v>
       </c>
       <c r="AP25" s="2">
@@ -72285,15 +72285,15 @@
         <v>0</v>
       </c>
       <c r="AM26">
-        <f>B26</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN26" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO26">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO26">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP26" s="2">
@@ -72417,15 +72417,15 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <f>B27</f>
+        <f t="shared" si="0"/>
         <v>34.697237454832802</v>
       </c>
       <c r="AN27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO27">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO27">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP27" s="2">
@@ -72549,15 +72549,15 @@
         <v>0</v>
       </c>
       <c r="AM28">
-        <f>B28</f>
+        <f t="shared" si="0"/>
         <v>34.825839485471597</v>
       </c>
       <c r="AN28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO28">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO28">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP28" s="2">
@@ -72681,15 +72681,15 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <f>B29</f>
+        <f t="shared" si="0"/>
         <v>35.382237871348998</v>
       </c>
       <c r="AN29" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99117211864925847</v>
+      </c>
+      <c r="AO29">
         <f t="shared" si="1"/>
-        <v>0.99117211864925847</v>
-      </c>
-      <c r="AO29">
-        <f t="shared" si="0"/>
         <v>4450429.8076531496</v>
       </c>
       <c r="AP29" s="2">
@@ -72813,15 +72813,15 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <f>B30</f>
+        <f t="shared" si="0"/>
         <v>35.010711322053197</v>
       </c>
       <c r="AN30" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98911057407853875</v>
+      </c>
+      <c r="AO30">
         <f t="shared" si="1"/>
-        <v>0.98911057407853875</v>
-      </c>
-      <c r="AO30">
-        <f t="shared" si="0"/>
         <v>5489723.2737537194</v>
       </c>
       <c r="AP30" s="2">
@@ -72945,15 +72945,15 @@
         <v>0</v>
       </c>
       <c r="AM31">
-        <f>B31</f>
+        <f t="shared" si="0"/>
         <v>45.602704648812797</v>
       </c>
       <c r="AN31" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98209203421070146</v>
+      </c>
+      <c r="AO31">
         <f t="shared" si="1"/>
-        <v>0.98209203421070146</v>
-      </c>
-      <c r="AO31">
-        <f t="shared" si="0"/>
         <v>9028003.6145288795</v>
       </c>
       <c r="AP31" s="2">
@@ -73077,15 +73077,15 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <f>B32</f>
+        <f t="shared" si="0"/>
         <v>45.602704648812697</v>
       </c>
       <c r="AN32" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98209203581122173</v>
+      </c>
+      <c r="AO32">
         <f t="shared" si="1"/>
-        <v>0.98209203581122173</v>
-      </c>
-      <c r="AO32">
-        <f t="shared" si="0"/>
         <v>9028002.8076531813</v>
       </c>
       <c r="AP32" s="2">
@@ -73213,15 +73213,15 @@
         <v>0</v>
       </c>
       <c r="AM33">
-        <f>B33</f>
+        <f t="shared" si="0"/>
         <v>45.602704648812797</v>
       </c>
       <c r="AN33" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98209203421070146</v>
+      </c>
+      <c r="AO33">
         <f t="shared" si="1"/>
-        <v>0.98209203421070146</v>
-      </c>
-      <c r="AO33">
-        <f t="shared" si="0"/>
         <v>9028003.6145288683</v>
       </c>
       <c r="AP33" s="2">
@@ -73345,15 +73345,15 @@
         <v>0</v>
       </c>
       <c r="AM34">
-        <f>B34</f>
+        <f t="shared" si="0"/>
         <v>45.602704648812797</v>
       </c>
       <c r="AN34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98209203421070146</v>
+      </c>
+      <c r="AO34">
         <f t="shared" si="1"/>
-        <v>0.98209203421070146</v>
-      </c>
-      <c r="AO34">
-        <f t="shared" si="0"/>
         <v>9028003.6145288683</v>
       </c>
       <c r="AP34" s="2">
@@ -73477,15 +73477,15 @@
         <v>0</v>
       </c>
       <c r="AM35">
-        <f>B35</f>
+        <f t="shared" ref="AM35:AM66" si="3">B35</f>
         <v>45.602704648812797</v>
       </c>
       <c r="AN35" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98209203421070146</v>
+      </c>
+      <c r="AO35">
         <f t="shared" si="1"/>
-        <v>0.98209203421070146</v>
-      </c>
-      <c r="AO35">
-        <f t="shared" si="0"/>
         <v>9028003.6145288683</v>
       </c>
       <c r="AP35" s="2">
@@ -73609,15 +73609,15 @@
         <v>0</v>
       </c>
       <c r="AM36">
-        <f>B36</f>
+        <f t="shared" si="3"/>
         <v>45.602704648812797</v>
       </c>
       <c r="AN36" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98209203421070146</v>
+      </c>
+      <c r="AO36">
         <f t="shared" si="1"/>
-        <v>0.98209203421070146</v>
-      </c>
-      <c r="AO36">
-        <f t="shared" si="0"/>
         <v>9028003.6145288683</v>
       </c>
       <c r="AP36" s="2">
@@ -73741,15 +73741,15 @@
         <v>0</v>
       </c>
       <c r="AM37">
-        <f>B37</f>
+        <f t="shared" si="3"/>
         <v>45.602704648812797</v>
       </c>
       <c r="AN37" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98209203421070146</v>
+      </c>
+      <c r="AO37">
         <f t="shared" si="1"/>
-        <v>0.98209203421070146</v>
-      </c>
-      <c r="AO37">
-        <f t="shared" si="0"/>
         <v>9028003.6145288683</v>
       </c>
       <c r="AP37" s="2">
@@ -73873,15 +73873,15 @@
         <v>0</v>
       </c>
       <c r="AM38">
-        <f>B38</f>
+        <f t="shared" si="3"/>
         <v>46.348600822830797</v>
       </c>
       <c r="AN38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97697300050298408</v>
+      </c>
+      <c r="AO38">
         <f t="shared" si="1"/>
-        <v>0.97697300050298408</v>
-      </c>
-      <c r="AO38">
-        <f t="shared" si="0"/>
         <v>11608679.463473421</v>
       </c>
       <c r="AP38" s="2">
@@ -74005,15 +74005,15 @@
         <v>0</v>
       </c>
       <c r="AM39">
-        <f>B39</f>
+        <f t="shared" si="3"/>
         <v>47.672849417768802</v>
       </c>
       <c r="AN39" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96407896927579573</v>
+      </c>
+      <c r="AO39">
         <f t="shared" si="1"/>
-        <v>0.96407896927579573</v>
-      </c>
-      <c r="AO39">
-        <f t="shared" si="0"/>
         <v>18108991.218283072</v>
       </c>
       <c r="AP39" s="2">
@@ -74137,15 +74137,15 @@
         <v>0</v>
       </c>
       <c r="AM40">
-        <f>B40</f>
+        <f t="shared" si="3"/>
         <v>50.286637214881601</v>
       </c>
       <c r="AN40" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95116923849675139</v>
+      </c>
+      <c r="AO40">
         <f t="shared" si="1"/>
-        <v>0.95116923849675139</v>
-      </c>
-      <c r="AO40">
-        <f t="shared" si="0"/>
         <v>24617217.641490452</v>
       </c>
       <c r="AP40" s="2">
@@ -74269,15 +74269,15 @@
         <v>0</v>
       </c>
       <c r="AM41">
-        <f>B41</f>
+        <f t="shared" si="3"/>
         <v>50.321346607644898</v>
       </c>
       <c r="AN41" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95109475088983164</v>
+      </c>
+      <c r="AO41">
         <f t="shared" si="1"/>
-        <v>0.95109475088983164</v>
-      </c>
-      <c r="AO41">
-        <f t="shared" si="0"/>
         <v>24654769.331750646</v>
       </c>
       <c r="AP41" s="2">
@@ -74401,15 +74401,15 @@
         <v>0</v>
       </c>
       <c r="AM42">
-        <f>B42</f>
+        <f t="shared" si="3"/>
         <v>60.428957908075603</v>
       </c>
       <c r="AN42" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9420891540581946</v>
+      </c>
+      <c r="AO42">
         <f t="shared" si="1"/>
-        <v>0.9420891540581946</v>
-      </c>
-      <c r="AO42">
-        <f t="shared" si="0"/>
         <v>29194791.448366169</v>
       </c>
       <c r="AP42" s="2">
@@ -74533,15 +74533,15 @@
         <v>0</v>
       </c>
       <c r="AM43">
-        <f>B43</f>
+        <f t="shared" si="3"/>
         <v>60.425757407174999</v>
       </c>
       <c r="AN43" s="2">
+        <f t="shared" si="2"/>
+        <v>0.94208915405819837</v>
+      </c>
+      <c r="AO43">
         <f t="shared" si="1"/>
-        <v>0.94208915405819837</v>
-      </c>
-      <c r="AO43">
-        <f t="shared" si="0"/>
         <v>29194791.44836425</v>
       </c>
       <c r="AP43" s="2">
@@ -74665,15 +74665,15 @@
         <v>0</v>
       </c>
       <c r="AM44">
-        <f>B44</f>
+        <f t="shared" si="3"/>
         <v>60.513907164507799</v>
       </c>
       <c r="AN44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9420891540581946</v>
+      </c>
+      <c r="AO44">
         <f t="shared" si="1"/>
-        <v>0.9420891540581946</v>
-      </c>
-      <c r="AO44">
-        <f t="shared" si="0"/>
         <v>29194791.448366169</v>
       </c>
       <c r="AP44" s="2">
@@ -74797,15 +74797,15 @@
         <v>0</v>
       </c>
       <c r="AM45">
-        <f>B45</f>
+        <f t="shared" si="3"/>
         <v>60.416746430307001</v>
       </c>
       <c r="AN45" s="2">
+        <f t="shared" si="2"/>
+        <v>0.94208915405819493</v>
+      </c>
+      <c r="AO45">
         <f t="shared" si="1"/>
-        <v>0.94208915405819493</v>
-      </c>
-      <c r="AO45">
-        <f t="shared" si="0"/>
         <v>29194791.448365968</v>
       </c>
       <c r="AP45" s="2">
@@ -74929,15 +74929,15 @@
         <v>0</v>
       </c>
       <c r="AM46">
-        <f>B46</f>
+        <f t="shared" si="3"/>
         <v>59.9575087786247</v>
       </c>
       <c r="AN46" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9420891540581946</v>
+      </c>
+      <c r="AO46">
         <f t="shared" si="1"/>
-        <v>0.9420891540581946</v>
-      </c>
-      <c r="AO46">
-        <f t="shared" si="0"/>
         <v>29194791.448366169</v>
       </c>
       <c r="AP46" s="2">
@@ -75061,15 +75061,15 @@
         <v>0</v>
       </c>
       <c r="AM47">
-        <f>B47</f>
+        <f t="shared" si="3"/>
         <v>60.513907164505497</v>
       </c>
       <c r="AN47" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9420891540581946</v>
+      </c>
+      <c r="AO47">
         <f t="shared" si="1"/>
-        <v>0.9420891540581946</v>
-      </c>
-      <c r="AO47">
-        <f t="shared" si="0"/>
         <v>29194791.448366169</v>
       </c>
       <c r="AP47" s="2">
@@ -75193,15 +75193,15 @@
         <v>0</v>
       </c>
       <c r="AM48">
-        <f>B48</f>
+        <f t="shared" si="3"/>
         <v>60.513907164508304</v>
       </c>
       <c r="AN48" s="2">
+        <f t="shared" si="2"/>
+        <v>0.94208915405819027</v>
+      </c>
+      <c r="AO48">
         <f t="shared" si="1"/>
-        <v>0.94208915405819027</v>
-      </c>
-      <c r="AO48">
-        <f t="shared" si="0"/>
         <v>29194791.448368315</v>
       </c>
       <c r="AP48" s="2">
@@ -75325,15 +75325,15 @@
         <v>0</v>
       </c>
       <c r="AM49">
-        <f>B49</f>
+        <f t="shared" si="3"/>
         <v>60.915335367149098</v>
       </c>
       <c r="AN49" s="2">
+        <f t="shared" si="2"/>
+        <v>0.93796732788697279</v>
+      </c>
+      <c r="AO49">
         <f t="shared" si="1"/>
-        <v>0.93796732788697279</v>
-      </c>
-      <c r="AO49">
-        <f t="shared" si="0"/>
         <v>31272741.675101973</v>
       </c>
       <c r="AP49" s="2">
@@ -75457,15 +75457,15 @@
         <v>0</v>
       </c>
       <c r="AM50">
-        <f>B50</f>
+        <f t="shared" si="3"/>
         <v>62.239583962087103</v>
       </c>
       <c r="AN50" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9374858557499014</v>
+      </c>
+      <c r="AO50">
         <f t="shared" si="1"/>
-        <v>0.9374858557499014</v>
-      </c>
-      <c r="AO50">
-        <f t="shared" si="0"/>
         <v>31515467.858796917</v>
       </c>
       <c r="AP50" s="2">
@@ -75589,15 +75589,15 @@
         <v>0</v>
       </c>
       <c r="AM51">
-        <f>B51</f>
+        <f t="shared" si="3"/>
         <v>63.563832557025101</v>
       </c>
       <c r="AN51" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9339511560779411</v>
+      </c>
+      <c r="AO51">
         <f t="shared" si="1"/>
-        <v>0.9339511560779411</v>
-      </c>
-      <c r="AO51">
-        <f t="shared" si="0"/>
         <v>33297428.009390928</v>
       </c>
       <c r="AP51" s="2">
@@ -75721,15 +75721,15 @@
         <v>0</v>
       </c>
       <c r="AM52">
-        <f>B52</f>
+        <f t="shared" si="3"/>
         <v>64.888081151963107</v>
       </c>
       <c r="AN52" s="2">
+        <f t="shared" si="2"/>
+        <v>0.93041645640598358</v>
+      </c>
+      <c r="AO52">
         <f t="shared" si="1"/>
-        <v>0.93041645640598358</v>
-      </c>
-      <c r="AO52">
-        <f t="shared" si="0"/>
         <v>35079388.15998362</v>
       </c>
       <c r="AP52" s="2">
@@ -75853,15 +75853,15 @@
         <v>0</v>
       </c>
       <c r="AM53">
-        <f>B53</f>
+        <f t="shared" si="3"/>
         <v>66.212329746901105</v>
       </c>
       <c r="AN53" s="2">
+        <f t="shared" si="2"/>
+        <v>0.92688175673402573</v>
+      </c>
+      <c r="AO53">
         <f t="shared" si="1"/>
-        <v>0.92688175673402573</v>
-      </c>
-      <c r="AO53">
-        <f t="shared" si="0"/>
         <v>36861348.310576417</v>
       </c>
       <c r="AP53" s="2">
@@ -75985,15 +75985,15 @@
         <v>0</v>
       </c>
       <c r="AM54">
-        <f>B54</f>
+        <f t="shared" si="3"/>
         <v>67.536578341839203</v>
       </c>
       <c r="AN54" s="2">
+        <f t="shared" si="2"/>
+        <v>0.92334705706206821</v>
+      </c>
+      <c r="AO54">
         <f t="shared" si="1"/>
-        <v>0.92334705706206821</v>
-      </c>
-      <c r="AO54">
-        <f t="shared" si="0"/>
         <v>38643308.461169116</v>
       </c>
       <c r="AP54" s="2">
@@ -76117,15 +76117,15 @@
         <v>0</v>
       </c>
       <c r="AM55">
-        <f>B55</f>
+        <f t="shared" si="3"/>
         <v>68.860826936777201</v>
       </c>
       <c r="AN55" s="2">
+        <f t="shared" si="2"/>
+        <v>0.91981235739011058</v>
+      </c>
+      <c r="AO55">
         <f t="shared" si="1"/>
-        <v>0.91981235739011058</v>
-      </c>
-      <c r="AO55">
-        <f t="shared" si="0"/>
         <v>40425268.611761816</v>
       </c>
       <c r="AP55" s="2">
@@ -76249,15 +76249,15 @@
         <v>0</v>
       </c>
       <c r="AM56">
-        <f>B56</f>
+        <f t="shared" si="3"/>
         <v>70.185075531715199</v>
       </c>
       <c r="AN56" s="2">
+        <f t="shared" si="2"/>
+        <v>0.91627765771815251</v>
+      </c>
+      <c r="AO56">
         <f t="shared" si="1"/>
-        <v>0.91627765771815251</v>
-      </c>
-      <c r="AO56">
-        <f t="shared" si="0"/>
         <v>42207228.762354769</v>
       </c>
       <c r="AP56" s="2">
@@ -76381,15 +76381,15 @@
         <v>0</v>
       </c>
       <c r="AM57">
-        <f>B57</f>
+        <f t="shared" si="3"/>
         <v>71.509324126653297</v>
       </c>
       <c r="AN57" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9087742133675426</v>
+      </c>
+      <c r="AO57">
         <f t="shared" si="1"/>
-        <v>0.9087742133675426</v>
-      </c>
-      <c r="AO57">
-        <f t="shared" si="0"/>
         <v>45989965.646920599</v>
       </c>
       <c r="AP57" s="2">
@@ -76513,15 +76513,15 @@
         <v>0</v>
       </c>
       <c r="AM58">
-        <f>B58</f>
+        <f t="shared" si="3"/>
         <v>72.833572721591295</v>
       </c>
       <c r="AN58" s="2">
+        <f t="shared" si="2"/>
+        <v>0.88681847720538631</v>
+      </c>
+      <c r="AO58">
         <f t="shared" si="1"/>
-        <v>0.88681847720538631</v>
-      </c>
-      <c r="AO58">
-        <f t="shared" si="0"/>
         <v>57058585.487038985</v>
       </c>
       <c r="AP58" s="2">
@@ -76645,15 +76645,15 @@
         <v>0</v>
       </c>
       <c r="AM59">
-        <f>B59</f>
+        <f t="shared" si="3"/>
         <v>74.157821316529294</v>
       </c>
       <c r="AN59" s="2">
+        <f t="shared" si="2"/>
+        <v>0.87215109231256105</v>
+      </c>
+      <c r="AO59">
         <f t="shared" si="1"/>
-        <v>0.87215109231256105</v>
-      </c>
-      <c r="AO59">
-        <f t="shared" si="0"/>
         <v>64452904.048181377</v>
       </c>
       <c r="AP59" s="2">
@@ -76777,15 +76777,15 @@
         <v>0</v>
       </c>
       <c r="AM60">
-        <f>B60</f>
+        <f t="shared" si="3"/>
         <v>75.482069911467306</v>
       </c>
       <c r="AN60" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8683586113475773</v>
+      </c>
+      <c r="AO60">
         <f t="shared" si="1"/>
-        <v>0.8683586113475773</v>
-      </c>
-      <c r="AO60">
-        <f t="shared" si="0"/>
         <v>66364820.357534885</v>
       </c>
       <c r="AP60" s="2">
@@ -76909,15 +76909,15 @@
         <v>0</v>
       </c>
       <c r="AM61">
-        <f>B61</f>
+        <f t="shared" si="3"/>
         <v>76.806318506405304</v>
       </c>
       <c r="AN61" s="2">
+        <f t="shared" si="2"/>
+        <v>0.86482391167561967</v>
+      </c>
+      <c r="AO61">
         <f t="shared" si="1"/>
-        <v>0.86482391167561967</v>
-      </c>
-      <c r="AO61">
-        <f t="shared" si="0"/>
         <v>68146780.508127615</v>
       </c>
       <c r="AP61" s="2">
@@ -77041,15 +77041,15 @@
         <v>0</v>
       </c>
       <c r="AM62">
-        <f>B62</f>
+        <f t="shared" si="3"/>
         <v>78.130567101343402</v>
       </c>
       <c r="AN62" s="2">
+        <f t="shared" si="2"/>
+        <v>0.86128921200367003</v>
+      </c>
+      <c r="AO62">
         <f t="shared" si="1"/>
-        <v>0.86128921200367003</v>
-      </c>
-      <c r="AO62">
-        <f t="shared" si="0"/>
         <v>69928740.658716321</v>
       </c>
       <c r="AP62" s="2">
@@ -77173,15 +77173,15 @@
         <v>31913869.282268099</v>
       </c>
       <c r="AM63">
-        <f>B63</f>
+        <f t="shared" si="3"/>
         <v>79.454815696281401</v>
       </c>
       <c r="AN63" s="2">
+        <f t="shared" si="2"/>
+        <v>0.85425485423645509</v>
+      </c>
+      <c r="AO63">
         <f t="shared" si="1"/>
-        <v>0.85425485423645509</v>
-      </c>
-      <c r="AO63">
-        <f t="shared" si="0"/>
         <v>73474995.330827415</v>
       </c>
       <c r="AP63" s="2">
@@ -77305,15 +77305,15 @@
         <v>33404056.671554498</v>
       </c>
       <c r="AM64">
-        <f>B64</f>
+        <f t="shared" si="3"/>
         <v>80.779064291219399</v>
       </c>
       <c r="AN64" s="2">
+        <f t="shared" si="2"/>
+        <v>0.84952613021925882</v>
+      </c>
+      <c r="AO64">
         <f t="shared" si="1"/>
-        <v>0.84952613021925882</v>
-      </c>
-      <c r="AO64">
-        <f t="shared" si="0"/>
         <v>75858903.029873222</v>
       </c>
       <c r="AP64" s="2">
@@ -77437,15 +77437,15 @@
         <v>37228128.426734999</v>
       </c>
       <c r="AM65">
-        <f>B65</f>
+        <f t="shared" si="3"/>
         <v>82.103312886157497</v>
       </c>
       <c r="AN65" s="2">
+        <f t="shared" si="2"/>
+        <v>0.84194069393771065</v>
+      </c>
+      <c r="AO65">
         <f t="shared" si="1"/>
-        <v>0.84194069393771065</v>
-      </c>
-      <c r="AO65">
-        <f t="shared" si="0"/>
         <v>79682974.785053715</v>
       </c>
       <c r="AP65" s="2">
@@ -77569,15 +77569,15 @@
         <v>36047084.600845903</v>
       </c>
       <c r="AM66">
-        <f>B66</f>
+        <f t="shared" si="3"/>
         <v>83.427561481095495</v>
       </c>
       <c r="AN66" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83389584553481433</v>
+      </c>
+      <c r="AO66">
         <f t="shared" si="1"/>
-        <v>0.83389584553481433</v>
-      </c>
-      <c r="AO66">
-        <f t="shared" si="0"/>
         <v>83738651.533279806</v>
       </c>
       <c r="AP66" s="2">
@@ -77701,15 +77701,15 @@
         <v>40838966.903326496</v>
       </c>
       <c r="AM67">
-        <f>B67</f>
+        <f t="shared" ref="AM67:AM103" si="4">B67</f>
         <v>84.751810076033493</v>
       </c>
       <c r="AN67" s="2">
-        <f t="shared" ref="AN67:AN102" si="2">(MAX($AO:$AO)-AO67)/MAX($AO:$AO)</f>
+        <f t="shared" ref="AN67:AN102" si="5">(MAX($AO:$AO)-AO67)/MAX($AO:$AO)</f>
         <v>0.82438929061786603</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO102" si="3">SUM(AF67:AL67)</f>
+        <f t="shared" ref="AO67:AO102" si="6">SUM(AF67:AL67)</f>
         <v>88531223.350856915</v>
       </c>
       <c r="AP67" s="2">
@@ -77833,15 +77833,15 @@
         <v>47457813.923444003</v>
       </c>
       <c r="AM68">
-        <f>B68</f>
+        <f t="shared" si="4"/>
         <v>86.076058670971506</v>
       </c>
       <c r="AN68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.81554415832459815</v>
       </c>
       <c r="AO68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>92990349.934755579</v>
       </c>
       <c r="AP68" s="2">
@@ -77965,15 +77965,15 @@
         <v>49768113.462019198</v>
       </c>
       <c r="AM69">
-        <f>B69</f>
+        <f t="shared" si="4"/>
         <v>87.400307265909504</v>
       </c>
       <c r="AN69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.80163324792923762</v>
       </c>
       <c r="AO69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100003304.43826213</v>
       </c>
       <c r="AP69" s="2">
@@ -78097,15 +78097,15 @@
         <v>33551020.208904199</v>
       </c>
       <c r="AM70">
-        <f>B70</f>
+        <f t="shared" si="4"/>
         <v>88.724555860847602</v>
       </c>
       <c r="AN70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.79438200997271691</v>
       </c>
       <c r="AO70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>103658895.65680233</v>
       </c>
       <c r="AP70" s="2">
@@ -78229,15 +78229,15 @@
         <v>37375091.964084603</v>
       </c>
       <c r="AM71">
-        <f>B71</f>
+        <f t="shared" si="4"/>
         <v>90.0488044557856</v>
       </c>
       <c r="AN71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.78679657369116895</v>
       </c>
       <c r="AO71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>107482967.41198272</v>
       </c>
       <c r="AP71" s="2">
@@ -78361,15 +78361,15 @@
         <v>36194048.138195701</v>
       </c>
       <c r="AM72">
-        <f>B72</f>
+        <f t="shared" si="4"/>
         <v>91.373053050723598</v>
       </c>
       <c r="AN72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.77875172528827219</v>
       </c>
       <c r="AO72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>111538644.160209</v>
       </c>
       <c r="AP72" s="2">
@@ -78493,15 +78493,15 @@
         <v>41041561.188308902</v>
       </c>
       <c r="AM73">
-        <f>B73</f>
+        <f t="shared" si="4"/>
         <v>92.697301645661597</v>
       </c>
       <c r="AN73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76913482111051557</v>
       </c>
       <c r="AO73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>116386846.72541869</v>
       </c>
       <c r="AP73" s="2">
@@ -78625,15 +78625,15 @@
         <v>47601993.382383697</v>
       </c>
       <c r="AM74">
-        <f>B74</f>
+        <f t="shared" si="4"/>
         <v>94.021550240599694</v>
       </c>
       <c r="AN74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76040556058148534</v>
       </c>
       <c r="AO74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>120787558.48327467</v>
       </c>
       <c r="AP74" s="2">
@@ -78757,15 +78757,15 @@
         <v>53525364.083893597</v>
       </c>
       <c r="AM75">
-        <f>B75</f>
+        <f t="shared" si="4"/>
         <v>95.345798835537707</v>
       </c>
       <c r="AN75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.74437192504624083</v>
       </c>
       <c r="AO75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>128870649.62100337</v>
       </c>
       <c r="AP75" s="2">
@@ -78889,15 +78889,15 @@
         <v>40124742.9831044</v>
       </c>
       <c r="AM76">
-        <f>B76</f>
+        <f t="shared" si="4"/>
         <v>96.670047430475705</v>
       </c>
       <c r="AN76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.73421535032399887</v>
       </c>
       <c r="AO76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>133990918.130698</v>
       </c>
       <c r="AP76" s="2">
@@ -79021,15 +79021,15 @@
         <v>46960820.277858898</v>
       </c>
       <c r="AM77">
-        <f>B77</f>
+        <f t="shared" si="4"/>
         <v>97.994296025413703</v>
       </c>
       <c r="AN77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.72494881010979029</v>
       </c>
       <c r="AO77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>138662490.5210163</v>
       </c>
       <c r="AP77" s="2">
@@ -79153,11 +79153,11 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM78">
-        <f>B78</f>
+        <f t="shared" si="4"/>
         <v>99.318544620351801</v>
       </c>
       <c r="AN78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.71645270943362838</v>
       </c>
       <c r="AO78">
@@ -79285,11 +79285,11 @@
         <v>33104452.739208698</v>
       </c>
       <c r="AM79">
-        <f>B79</f>
+        <f t="shared" si="4"/>
         <v>100.642793215289</v>
       </c>
       <c r="AN79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.70369914423083124</v>
       </c>
       <c r="AO79">
@@ -79417,15 +79417,15 @@
         <v>36868501.464074299</v>
       </c>
       <c r="AM80">
-        <f>B80</f>
+        <f t="shared" si="4"/>
         <v>101.967041810227</v>
       </c>
       <c r="AN80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.69622026181574148</v>
       </c>
       <c r="AO80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>153145511.1438182</v>
       </c>
       <c r="AP80" s="2">
@@ -79549,15 +79549,15 @@
         <v>35687457.638196997</v>
       </c>
       <c r="AM81">
-        <f>B81</f>
+        <f t="shared" si="4"/>
         <v>103.291290405165</v>
       </c>
       <c r="AN81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.68817541341282151</v>
       </c>
       <c r="AO81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>157201187.89205608</v>
       </c>
       <c r="AP81" s="2">
@@ -79681,15 +79681,15 @@
         <v>40332032.5391265</v>
       </c>
       <c r="AM82">
-        <f>B82</f>
+        <f t="shared" si="4"/>
         <v>104.615539000103</v>
       </c>
       <c r="AN82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.67895156726774764</v>
       </c>
       <c r="AO82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>161851236.77629894</v>
       </c>
       <c r="AP82" s="2">
@@ -79813,15 +79813,15 @@
         <v>47104999.736798599</v>
       </c>
       <c r="AM83">
-        <f>B83</f>
+        <f t="shared" si="4"/>
         <v>105.939787595041</v>
       </c>
       <c r="AN83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.6698102123666777</v>
       </c>
       <c r="AO83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>166459699.06953537</v>
       </c>
       <c r="AP83" s="2">
@@ -79945,15 +79945,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM84">
-        <f>B84</f>
+        <f t="shared" si="4"/>
         <v>107.264036189979</v>
       </c>
       <c r="AN84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.66105873657507819</v>
       </c>
       <c r="AO84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>170871610.28316057</v>
       </c>
       <c r="AP84" s="2">
@@ -80077,15 +80077,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM85">
-        <f>B85</f>
+        <f t="shared" si="4"/>
         <v>108.58828478491699</v>
       </c>
       <c r="AN85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.64478516365533844</v>
       </c>
       <c r="AO85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>179075661.86943877</v>
       </c>
       <c r="AP85" s="2">
@@ -80209,15 +80209,15 @@
         <v>47984069.976013698</v>
       </c>
       <c r="AM86">
-        <f>B86</f>
+        <f t="shared" si="4"/>
         <v>109.91253337985501</v>
       </c>
       <c r="AN86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.62775481494197238</v>
       </c>
       <c r="AO86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>187661229.40681008</v>
       </c>
       <c r="AP86" s="2">
@@ -80341,15 +80341,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM87">
-        <f>B87</f>
+        <f t="shared" si="4"/>
         <v>111.236781974794</v>
       </c>
       <c r="AN87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61837688347897446</v>
       </c>
       <c r="AO87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>192388957.8457008</v>
       </c>
       <c r="AP87" s="2">
@@ -80473,15 +80473,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM88">
-        <f>B88</f>
+        <f t="shared" si="4"/>
         <v>112.561030569732</v>
       </c>
       <c r="AN88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.60763709110599384</v>
       </c>
       <c r="AO88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>197803245.85045561</v>
       </c>
       <c r="AP88" s="2">
@@ -80605,15 +80605,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM89">
-        <f>B89</f>
+        <f t="shared" si="4"/>
         <v>113.88527916467</v>
       </c>
       <c r="AN89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.59230806524520108</v>
       </c>
       <c r="AO89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>205531119.7199235</v>
       </c>
       <c r="AP89" s="2">
@@ -80737,15 +80737,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM90">
-        <f>B90</f>
+        <f t="shared" si="4"/>
         <v>115.20952775960799</v>
       </c>
       <c r="AN90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.58348401402091921</v>
       </c>
       <c r="AO90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>209979618.63291621</v>
       </c>
       <c r="AP90" s="2">
@@ -80869,15 +80869,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM91">
-        <f>B91</f>
+        <f t="shared" si="4"/>
         <v>116.53377635454601</v>
       </c>
       <c r="AN91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.57274422164793037</v>
       </c>
       <c r="AO91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>215393906.6376752</v>
       </c>
       <c r="AP91" s="2">
@@ -81001,15 +81001,15 @@
         <v>37498874.4177</v>
       </c>
       <c r="AM92">
-        <f>B92</f>
+        <f t="shared" si="4"/>
         <v>117.858024949484</v>
       </c>
       <c r="AN92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.56295625021167506</v>
       </c>
       <c r="AO92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>220328349.92091089</v>
       </c>
       <c r="AP92" s="2">
@@ -81133,15 +81133,15 @@
         <v>45649139.864374898</v>
       </c>
       <c r="AM93">
-        <f>B93</f>
+        <f t="shared" si="4"/>
         <v>119.182273544422</v>
       </c>
       <c r="AN93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.55258819670079096</v>
       </c>
       <c r="AO93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>225555231.95057315</v>
       </c>
       <c r="AP93" s="2">
@@ -81265,15 +81265,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM94">
-        <f>B94</f>
+        <f t="shared" si="4"/>
         <v>120.50652213936</v>
       </c>
       <c r="AN94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.54130145542663244</v>
       </c>
       <c r="AO94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>231245255.16249192</v>
       </c>
       <c r="AP94" s="2">
@@ -81397,15 +81397,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM95">
-        <f>B95</f>
+        <f t="shared" si="4"/>
         <v>121.830770734298</v>
       </c>
       <c r="AN95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.51985892489273944</v>
       </c>
       <c r="AO95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>242055150.90622371</v>
       </c>
       <c r="AP95" s="2">
@@ -81529,15 +81529,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM96">
-        <f>B96</f>
+        <f t="shared" si="4"/>
         <v>123.155019329236</v>
       </c>
       <c r="AN96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.42251272863449563</v>
       </c>
       <c r="AO96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>291130619.44465733</v>
       </c>
       <c r="AP96" s="2">
@@ -81661,15 +81661,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM97">
-        <f>B97</f>
+        <f t="shared" si="4"/>
         <v>124.479267924174</v>
       </c>
       <c r="AN97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.40618832756610651</v>
       </c>
       <c r="AO97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>299360295.19814277</v>
       </c>
       <c r="AP97" s="2">
@@ -81793,15 +81793,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM98">
-        <f>B98</f>
+        <f t="shared" si="4"/>
         <v>125.80351651911199</v>
       </c>
       <c r="AN98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.38786830844035863</v>
       </c>
       <c r="AO98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>308596028.6606406</v>
       </c>
       <c r="AP98" s="2">
@@ -81925,15 +81925,15 @@
         <v>48014147.619525298</v>
       </c>
       <c r="AM99">
-        <f>B99</f>
+        <f t="shared" si="4"/>
         <v>127.12776511405001</v>
       </c>
       <c r="AN99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.29193806218123747</v>
       </c>
       <c r="AO99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>356957669.51699823</v>
       </c>
       <c r="AP99" s="2">
@@ -82057,15 +82057,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM100">
-        <f>B100</f>
+        <f t="shared" si="4"/>
         <v>128.45201370898801</v>
       </c>
       <c r="AN100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2574171952096328</v>
       </c>
       <c r="AO100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>374360791.42728007</v>
       </c>
       <c r="AP100" s="2">
@@ -82189,15 +82189,15 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM101">
-        <f>B101</f>
+        <f t="shared" si="4"/>
         <v>129.77626230392599</v>
       </c>
       <c r="AN101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22264634185880075</v>
       </c>
       <c r="AO101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>391889939.81995535</v>
       </c>
       <c r="AP101" s="2">
@@ -82321,15 +82321,15 @@
         <v>48014147.619525596</v>
       </c>
       <c r="AM102">
-        <f>B102</f>
+        <f t="shared" si="4"/>
         <v>131.100510898864</v>
       </c>
       <c r="AN102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17972195920347234</v>
       </c>
       <c r="AO102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>413529554.63289535</v>
       </c>
       <c r="AP102" s="2">
@@ -82453,7 +82453,7 @@
         <v>112294813.886721</v>
       </c>
       <c r="AM103">
-        <f>B103</f>
+        <f t="shared" si="4"/>
         <v>132.42485949380199</v>
       </c>
       <c r="AN103" s="2">

--- a/results/mop/pareto_under_cap_label.xlsx
+++ b/results/mop/pareto_under_cap_label.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="res_under_cap4_changes" sheetId="2" r:id="rId5"/>
     <sheet name="res_under_cap5_changes" sheetId="5" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -4236,7 +4239,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3CDAF4C-353A-4903-8BA6-A7B1BF4BFC1C}" type="CELLRANGE">
+                    <a:fld id="{3AC8F17C-2254-49C9-8D76-BC35229AECE6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4455,7 +4458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{947F3420-E000-4616-B4EF-B0685809C8CD}" type="CELLRANGE">
+                    <a:fld id="{DE8A865C-4F10-4F1C-817E-15E494F6EB05}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5006,7 +5009,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FEC02B6-67DD-4481-874E-A7A67167FD3F}" type="CELLRANGE">
+                    <a:fld id="{2934FB37-70CD-4AB7-B8FE-67504998AFBF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5046,7 +5049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAD5640F-8295-4826-A91D-63063A2DE3C5}" type="CELLRANGE">
+                    <a:fld id="{BAF0AE85-7C85-43C6-B983-3A0330C51233}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5086,7 +5089,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27DD2BF6-111E-4BA4-BD5F-72F15A645E6F}" type="CELLRANGE">
+                    <a:fld id="{6FEE5F2D-D0F8-456B-BD8A-C577A0C980EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5443,7 +5446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31E6AA11-F20F-451B-8CC0-768FF7C07393}" type="CELLRANGE">
+                    <a:fld id="{800AF5EB-7D05-4821-B751-9593A3E0E4BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5634,7 +5637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12B570B2-1968-4DB5-925A-011CB87629B3}" type="CELLRANGE">
+                    <a:fld id="{50CFDFDF-0A2A-46D2-97B5-6C1ABA86F17B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5675,7 +5678,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D70C368-6CC5-4003-A02B-69298954DEB3}" type="CELLRANGE">
+                    <a:fld id="{F31A5947-8328-4520-8FAB-001A08C473D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5716,7 +5719,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26A32D70-3022-41F7-B896-6E1D719ACC58}" type="CELLRANGE">
+                    <a:fld id="{6B521BD7-E947-4922-B597-16CB5C19181B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5757,7 +5760,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44CBB7DB-4D8F-4046-B0EF-EEE81000507E}" type="CELLRANGE">
+                    <a:fld id="{ACB3AD51-EE9F-47E8-BBD1-0F378107B81A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6116,7 +6119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29C142B4-10B3-453A-AA6E-E452BD63583F}" type="CELLRANGE">
+                    <a:fld id="{9CECEC52-BF3C-472D-AB65-3A3F067359B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6275,7 +6278,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CC63FD4-6D42-405C-AAFE-B3C410DC9ADB}" type="CELLRANGE">
+                    <a:fld id="{0060A7D3-D3D8-4C33-B07D-AE1F4B899002}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6314,7 +6317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD3B5DAA-96B1-473F-872A-83D9F6CBF219}" type="CELLRANGE">
+                    <a:fld id="{4B04CED7-2CB4-4C0B-973C-4C39955905D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6353,7 +6356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43F116C8-2E5F-428C-B82D-DF884694F3D3}" type="CELLRANGE">
+                    <a:fld id="{E84FBA28-39B4-4E30-AFAB-70AC7DA4688F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6392,7 +6395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E426517-E1CE-4A67-AD91-B295955E20CE}" type="CELLRANGE">
+                    <a:fld id="{82C3D17E-9AD6-49F2-B755-F595D8C07564}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6431,7 +6434,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FB7CE6C-29D2-4F44-8D7B-F31D6FD73937}" type="CELLRANGE">
+                    <a:fld id="{077F8C35-8B4D-4E99-9DBB-D3BF1BC4C6CE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6470,7 +6473,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C41A89F-63D6-44A4-8FF3-2110267BC5BD}" type="CELLRANGE">
+                    <a:fld id="{D3450E3E-0056-4A63-A214-7C78E9499B56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6509,7 +6512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E46A9937-1569-47BF-8BC1-4DD2576FEACA}" type="CELLRANGE">
+                    <a:fld id="{714C7902-FDDA-43A2-9DA2-056E6C866106}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6866,7 +6869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89767F91-42D0-4BAD-842B-235849DBC664}" type="CELLRANGE">
+                    <a:fld id="{AC307C10-1A0F-4462-B833-7D1B5EE04A35}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7026,7 +7029,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{583FA9B1-E434-44FE-A8A7-97498C672B71}" type="CELLRANGE">
+                    <a:fld id="{F6452172-05F4-472D-8D72-797BA624DD54}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7066,7 +7069,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49785344-D40C-4B12-9B34-98BBE41D635F}" type="CELLRANGE">
+                    <a:fld id="{88FE0804-E419-466C-B747-53762FDFB4BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7106,7 +7109,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40CDA220-ACF2-422E-8362-858B5DF991A1}" type="CELLRANGE">
+                    <a:fld id="{46C53BBA-1F41-4AAA-8B1D-254EBE34CEFA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7146,7 +7149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{180CE1DA-B591-4B48-8E17-3114EE5A2A33}" type="CELLRANGE">
+                    <a:fld id="{57250AB3-083F-4384-A88A-24AAABCCAE10}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7186,7 +7189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1575A282-C178-49A7-AAE0-3FEB4B7E812F}" type="CELLRANGE">
+                    <a:fld id="{D2566466-B65C-4307-9479-B771F3DA0F87}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7226,7 +7229,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCE929A5-80D0-45D4-AECF-AA10334FE229}" type="CELLRANGE">
+                    <a:fld id="{040024CE-1F5F-4D86-B10C-93D15BEFA704}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7266,7 +7269,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F58A09E-8332-446E-A1C4-4721724072E9}" type="CELLRANGE">
+                    <a:fld id="{C34F4011-2940-4417-BB8D-818BE1A4B20F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12490,6 +12493,1250 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3052646331829882E-2"/>
+          <c:y val="2.5507246376811593E-2"/>
+          <c:w val="0.90617065463904389"/>
+          <c:h val="0.81716343717904849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AM$4:$AM$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65.470983303285493</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>73.096381227829994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>73.096381227829994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>73.096381227830193</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>73.096381227830506</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>73.096381227830307</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73.096381227830804</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>75.220869227944902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AP$4:$AP$60</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.90592514082557196</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.86874682494803357</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.86874682494803357</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.86874682494803357</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.86874682494803357</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.86874682494803357</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.86874682494803357</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.84296863179644466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D494-407E-9E83-6170AA0348B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AM$61:$AM$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>75.220869227928702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.106216172475996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.396152039975206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.686087289448594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.976023774974493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.846267152470205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.846267152470702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.845831377473303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.135767244972897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.425703112472505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.715638979971999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.005574847471607</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.295510714971201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AP$61:$AP$73</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.84296863179644499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83874572185723861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83117017664185899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82103985614946251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81354070937096312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80579031591889505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80579031591889505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80091676525959166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79307414207358251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78299468829898977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77572406637043145</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74540671912784118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7336460388704058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D494-407E-9E83-6170AA0348B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AM$74:$AM$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>91.585446582470794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.875382449970402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.936812529323305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.455254184969604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.745190052469198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.035125919968706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.3250617874684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.61499765496799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.904933522467</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103.194869389967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104.48480525746599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.774741124966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AP$74:$AP$85</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.72516912489113927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71602590244960529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71472672371979973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71246453644893437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70524914456248777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69559195312880306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68735248189060238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67757793517192044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66072961023854704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63708987207243295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60516821661631537</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58292202431010309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D494-407E-9E83-6170AA0348B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AM$86:$AM$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>107.064676992465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.354612859965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.64454872746499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.934484594964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.224420462464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.51435632996299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>114.804292197463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.377242672368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AP$86:$AP$93</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.57759225211295173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57299245741963867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57031857723945822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56549552889079524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50994640424059112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49989086974093705</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49207245248354137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46134397155095769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D494-407E-9E83-6170AA0348B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AM$94:$AM$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>117.384163932462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.67409979996199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119.964035667461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.857199670323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122.543907402461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123.83384327045199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AP$94:$AP$99</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.46115851113226725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4097239536891194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38205990759201214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29264340897390906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28464870569545481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14752697385328853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D494-407E-9E83-6170AA0348B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AM$100:$AM$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>125.12377913746001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.413715004959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.703650872456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>res_under_cap2_changes!$AP$100:$AP$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.13212120497884189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1167154361044388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1008282468859467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D494-407E-9E83-6170AA0348B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532987760"/>
+        <c:axId val="532988088"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532987760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1200" b="1"/>
+                  <a:t>Oil output</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532988088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="532988088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1200" b="1"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532987760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12531,6 +13778,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13602,6 +14889,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13666,7 +15469,1255 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98622</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>97947</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet4"/>
+      <sheetName val="res_zero1_changes"/>
+      <sheetName val="res_zero2_changes"/>
+      <sheetName val="res_zero3_changes"/>
+      <sheetName val="res_zero4_changes"/>
+      <sheetName val="res_zero5_changes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="L4">
+            <v>3.2054359166977499E-12</v>
+          </cell>
+          <cell r="M4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>35.382281192372503</v>
+          </cell>
+          <cell r="M5">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>28.753376880605099</v>
+          </cell>
+          <cell r="M6">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>44.917747553340703</v>
+          </cell>
+          <cell r="M7">
+            <v>0.98209206489776468</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>53.2751101413795</v>
+          </cell>
+          <cell r="M8">
+            <v>0.95528928350790943</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="L9">
+            <v>66.212447444738302</v>
+          </cell>
+          <cell r="M9">
+            <v>0.92688157665820436</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="L10">
+            <v>79.454936933686</v>
+          </cell>
+          <cell r="M10">
+            <v>0.85571795224204372</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="L11">
+            <v>92.697426422633598</v>
+          </cell>
+          <cell r="M11">
+            <v>0.76913416783408994</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="L12">
+            <v>105.939915911581</v>
+          </cell>
+          <cell r="M12">
+            <v>0.62281583555060738</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="L13">
+            <v>119.18240540052901</v>
+          </cell>
+          <cell r="M13">
+            <v>0.34877380494410193</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="AM3">
+            <v>3.2054359166977499E-12</v>
+          </cell>
+          <cell r="AN3">
+            <v>1</v>
+          </cell>
+          <cell r="AP3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AM4">
+            <v>1.32424894889476</v>
+          </cell>
+          <cell r="AN4">
+            <v>1</v>
+          </cell>
+          <cell r="AP4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AM5">
+            <v>5.7933900482864997</v>
+          </cell>
+          <cell r="AN5">
+            <v>1</v>
+          </cell>
+          <cell r="AP5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AM6">
+            <v>6.0834506815949503</v>
+          </cell>
+          <cell r="AN6">
+            <v>1</v>
+          </cell>
+          <cell r="AP6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AM7">
+            <v>6.2362719884350701</v>
+          </cell>
+          <cell r="AN7">
+            <v>1</v>
+          </cell>
+          <cell r="AP7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AM8">
+            <v>6.6289043117674096</v>
+          </cell>
+          <cell r="AN8">
+            <v>1</v>
+          </cell>
+          <cell r="AP8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AM9">
+            <v>28.753376880605099</v>
+          </cell>
+          <cell r="AN9">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP9">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AM10">
+            <v>34.697280775856299</v>
+          </cell>
+          <cell r="AN10">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP10">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AM11">
+            <v>28.753376880605099</v>
+          </cell>
+          <cell r="AN11">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP11">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AM12">
+            <v>28.753376880603099</v>
+          </cell>
+          <cell r="AN12">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP12">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AM13">
+            <v>35.382281192372503</v>
+          </cell>
+          <cell r="AN13">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP13">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AM14">
+            <v>34.5467669288916</v>
+          </cell>
+          <cell r="AN14">
+            <v>0.99117215134948011</v>
+          </cell>
+          <cell r="AP14">
+            <v>0.99117215134948011</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AM15">
+            <v>30.003742456849402</v>
+          </cell>
+          <cell r="AN15">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP15">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AM16">
+            <v>28.753376880606002</v>
+          </cell>
+          <cell r="AN16">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP16">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AM17">
+            <v>35.294131435041599</v>
+          </cell>
+          <cell r="AN17">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP17">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AM18">
+            <v>28.753376880604002</v>
+          </cell>
+          <cell r="AN18">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP18">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AM19">
+            <v>28.753376880605099</v>
+          </cell>
+          <cell r="AN19">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP19">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AM20">
+            <v>28.753376880606499</v>
+          </cell>
+          <cell r="AN20">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP20">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AM21">
+            <v>28.753376880603099</v>
+          </cell>
+          <cell r="AN21">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP21">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AM22">
+            <v>30.003742456849402</v>
+          </cell>
+          <cell r="AN22">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP22">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AM23">
+            <v>28.753376880605099</v>
+          </cell>
+          <cell r="AN23">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP23">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AM24">
+            <v>28.753376880605099</v>
+          </cell>
+          <cell r="AN24">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP24">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AM25">
+            <v>35.297648643730803</v>
+          </cell>
+          <cell r="AN25">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP25">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AM26">
+            <v>30.773539258805801</v>
+          </cell>
+          <cell r="AN26">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP26">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AM27">
+            <v>34.388749264150597</v>
+          </cell>
+          <cell r="AN27">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP27">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AM28">
+            <v>35.382281192372503</v>
+          </cell>
+          <cell r="AN28">
+            <v>0.99117215134948022</v>
+          </cell>
+          <cell r="AP28">
+            <v>0.99117215134948022</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AM29">
+            <v>35.218888663178703</v>
+          </cell>
+          <cell r="AN29">
+            <v>0.99117215134859749</v>
+          </cell>
+          <cell r="AP29">
+            <v>0.99117215134859749</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AM30">
+            <v>35.754721620158698</v>
+          </cell>
+          <cell r="AN30">
+            <v>0.98244970273190757</v>
+          </cell>
+          <cell r="AP30">
+            <v>0.98244970273190757</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AM31">
+            <v>38.973843658068901</v>
+          </cell>
+          <cell r="AN31">
+            <v>0.98209206649828529</v>
+          </cell>
+          <cell r="AP31">
+            <v>0.98209206649828529</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AM32">
+            <v>45.439355440642501</v>
+          </cell>
+          <cell r="AN32">
+            <v>0.98209206489776468</v>
+          </cell>
+          <cell r="AP32">
+            <v>0.98209206489776468</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AM33">
+            <v>44.917747553340703</v>
+          </cell>
+          <cell r="AN33">
+            <v>0.98209206489776468</v>
+          </cell>
+          <cell r="AP33">
+            <v>0.98209206489776468</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AM34">
+            <v>45.439355440642501</v>
+          </cell>
+          <cell r="AN34">
+            <v>0.98209206489776468</v>
+          </cell>
+          <cell r="AP34">
+            <v>0.98209206489776468</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AM35">
+            <v>45.046349583955497</v>
+          </cell>
+          <cell r="AN35">
+            <v>0.98209206489776468</v>
+          </cell>
+          <cell r="AP35">
+            <v>0.98209206489776468</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AM36">
+            <v>45.6027479698364</v>
+          </cell>
+          <cell r="AN36">
+            <v>0.98209206489776468</v>
+          </cell>
+          <cell r="AP36">
+            <v>0.98209206489776468</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AM37">
+            <v>45.046349583955497</v>
+          </cell>
+          <cell r="AN37">
+            <v>0.98209206489776468</v>
+          </cell>
+          <cell r="AP37">
+            <v>0.98209206489776468</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="AM38">
+            <v>46.348713211316799</v>
+          </cell>
+          <cell r="AN38">
+            <v>0.97697274524683642</v>
+          </cell>
+          <cell r="AP38">
+            <v>0.97697274524683642</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="AM39">
+            <v>47.672962160211597</v>
+          </cell>
+          <cell r="AN39">
+            <v>0.9640772838916507</v>
+          </cell>
+          <cell r="AP39">
+            <v>0.9640772838916507</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AM40">
+            <v>53.261220894894201</v>
+          </cell>
+          <cell r="AN40">
+            <v>0.95528928350790943</v>
+          </cell>
+          <cell r="AP40">
+            <v>0.95528928350790943</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AM41">
+            <v>52.772311924402402</v>
+          </cell>
+          <cell r="AN41">
+            <v>0.95528928350790943</v>
+          </cell>
+          <cell r="AP41">
+            <v>0.95528928350790943</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AM42">
+            <v>53.321907138118803</v>
+          </cell>
+          <cell r="AN42">
+            <v>0.95528928350790943</v>
+          </cell>
+          <cell r="AP42">
+            <v>0.95528928350790943</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="AM43">
+            <v>53.2751101413795</v>
+          </cell>
+          <cell r="AN43">
+            <v>0.95528928350790943</v>
+          </cell>
+          <cell r="AP43">
+            <v>0.95528928350790943</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="AM44">
+            <v>54.294206904685304</v>
+          </cell>
+          <cell r="AN44">
+            <v>0.95404303956524739</v>
+          </cell>
+          <cell r="AP44">
+            <v>0.95404303956524739</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="AM45">
+            <v>55.618455853580201</v>
+          </cell>
+          <cell r="AN45">
+            <v>0.95206498486146018</v>
+          </cell>
+          <cell r="AP45">
+            <v>0.95206498486146018</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="AM46">
+            <v>56.9427048024749</v>
+          </cell>
+          <cell r="AN46">
+            <v>0.95008693012103007</v>
+          </cell>
+          <cell r="AP46">
+            <v>0.95008693012103007</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="AM47">
+            <v>58.266953751369698</v>
+          </cell>
+          <cell r="AN47">
+            <v>0.94808978505870256</v>
+          </cell>
+          <cell r="AP47">
+            <v>0.94808978505870256</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AM48">
+            <v>59.591202700264503</v>
+          </cell>
+          <cell r="AN48">
+            <v>0.94455508365861951</v>
+          </cell>
+          <cell r="AP48">
+            <v>0.94455508365861951</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AM49">
+            <v>60.915451649159202</v>
+          </cell>
+          <cell r="AN49">
+            <v>0.94102038225853657</v>
+          </cell>
+          <cell r="AP49">
+            <v>0.94102038225853657</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AM50">
+            <v>62.239700598054</v>
+          </cell>
+          <cell r="AN50">
+            <v>0.93748568085845352</v>
+          </cell>
+          <cell r="AP50">
+            <v>0.93748568085845352</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="AM51">
+            <v>63.563949546948798</v>
+          </cell>
+          <cell r="AN51">
+            <v>0.93395097945837058</v>
+          </cell>
+          <cell r="AP51">
+            <v>0.93395097945837058</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AM52">
+            <v>64.888198495843596</v>
+          </cell>
+          <cell r="AN52">
+            <v>0.9304162780582873</v>
+          </cell>
+          <cell r="AP52">
+            <v>0.9304162780582873</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AM53">
+            <v>66.212447444738302</v>
+          </cell>
+          <cell r="AN53">
+            <v>0.92688157665820436</v>
+          </cell>
+          <cell r="AP53">
+            <v>0.92688157665820436</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="AM54">
+            <v>67.536696393633093</v>
+          </cell>
+          <cell r="AN54">
+            <v>0.92334687528158266</v>
+          </cell>
+          <cell r="AP54">
+            <v>0.92334687528158266</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="AM55">
+            <v>68.860945342527899</v>
+          </cell>
+          <cell r="AN55">
+            <v>0.91981217385803837</v>
+          </cell>
+          <cell r="AP55">
+            <v>0.91981217385803837</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="AM56">
+            <v>70.185194291422604</v>
+          </cell>
+          <cell r="AN56">
+            <v>0.91627747245795521</v>
+          </cell>
+          <cell r="AP56">
+            <v>0.91627747245795521</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="AM57">
+            <v>71.509443240317395</v>
+          </cell>
+          <cell r="AN57">
+            <v>0.90877379643698175</v>
+          </cell>
+          <cell r="AP57">
+            <v>0.90877379643698175</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="AM58">
+            <v>72.833692189212201</v>
+          </cell>
+          <cell r="AN58">
+            <v>0.88681602173650464</v>
+          </cell>
+          <cell r="AP58">
+            <v>0.88681602173650464</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="AM59">
+            <v>74.157941138106906</v>
+          </cell>
+          <cell r="AN59">
+            <v>0.87788757579055632</v>
+          </cell>
+          <cell r="AP59">
+            <v>0.87788757579055632</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="AM60">
+            <v>75.482190087001698</v>
+          </cell>
+          <cell r="AN60">
+            <v>0.87435287439047327</v>
+          </cell>
+          <cell r="AP60">
+            <v>0.87435287439047327</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="AM61">
+            <v>76.806439035896403</v>
+          </cell>
+          <cell r="AN61">
+            <v>0.87036430846556645</v>
+          </cell>
+          <cell r="AP61">
+            <v>0.87036430846556645</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="AM62">
+            <v>78.130687984791194</v>
+          </cell>
+          <cell r="AN62">
+            <v>0.86346071466223628</v>
+          </cell>
+          <cell r="AP62">
+            <v>0.86346071466223628</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="AM63">
+            <v>79.454936933686</v>
+          </cell>
+          <cell r="AN63">
+            <v>0.85571795224204372</v>
+          </cell>
+          <cell r="AP63">
+            <v>0.85571795224204372</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="AM64">
+            <v>80.779185882580705</v>
+          </cell>
+          <cell r="AN64">
+            <v>0.84952568325708877</v>
+          </cell>
+          <cell r="AP64">
+            <v>0.84952568325708877</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="AM65">
+            <v>82.103434831475496</v>
+          </cell>
+          <cell r="AN65">
+            <v>0.84194024320137217</v>
+          </cell>
+          <cell r="AP65">
+            <v>0.84194024320137217</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="AM66">
+            <v>83.427683780370202</v>
+          </cell>
+          <cell r="AN66">
+            <v>0.83389511655135018</v>
+          </cell>
+          <cell r="AP66">
+            <v>0.83389511655135018</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="AM67">
+            <v>84.751932729264993</v>
+          </cell>
+          <cell r="AN67">
+            <v>0.82438865741454304</v>
+          </cell>
+          <cell r="AP67">
+            <v>0.82438865741454304</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="AM68">
+            <v>86.076181678159799</v>
+          </cell>
+          <cell r="AN68">
+            <v>0.81554370429838174</v>
+          </cell>
+          <cell r="AP68">
+            <v>0.81554370429838174</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="AM69">
+            <v>87.400430627054604</v>
+          </cell>
+          <cell r="AN69">
+            <v>0.8016311854657403</v>
+          </cell>
+          <cell r="AP69">
+            <v>0.8016311854657403</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="AM70">
+            <v>88.724679575949395</v>
+          </cell>
+          <cell r="AN70">
+            <v>0.79438153855465288</v>
+          </cell>
+          <cell r="AP70">
+            <v>0.79438153855465288</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="AM71">
+            <v>90.048928524844101</v>
+          </cell>
+          <cell r="AN71">
+            <v>0.78679609856456267</v>
+          </cell>
+          <cell r="AP71">
+            <v>0.78679609856456267</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="AM72">
+            <v>91.373177473738906</v>
+          </cell>
+          <cell r="AN72">
+            <v>0.77875097191907316</v>
+          </cell>
+          <cell r="AP72">
+            <v>0.77875097191907316</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="AM73">
+            <v>92.697426422633598</v>
+          </cell>
+          <cell r="AN73">
+            <v>0.76913416783408994</v>
+          </cell>
+          <cell r="AP73">
+            <v>0.76913416783408994</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="AM74">
+            <v>94.021675371528403</v>
+          </cell>
+          <cell r="AN74">
+            <v>0.76040508346390745</v>
+          </cell>
+          <cell r="AP74">
+            <v>0.76040508346390745</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="AM75">
+            <v>95.345924320423194</v>
+          </cell>
+          <cell r="AN75">
+            <v>0.7443697954154499</v>
+          </cell>
+          <cell r="AP75">
+            <v>0.7443697954154499</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="AM76">
+            <v>96.670173269317999</v>
+          </cell>
+          <cell r="AN76">
+            <v>0.71073234700477228</v>
+          </cell>
+          <cell r="AP76">
+            <v>0.71073234700477228</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="AM77">
+            <v>97.994422218212705</v>
+          </cell>
+          <cell r="AN77">
+            <v>0.69993290660435858</v>
+          </cell>
+          <cell r="AP77">
+            <v>0.69993290660435858</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="AM78">
+            <v>99.318671167107496</v>
+          </cell>
+          <cell r="AN78">
+            <v>0.68572269030006683</v>
+          </cell>
+          <cell r="AP78">
+            <v>0.68572269030006683</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="AM79">
+            <v>100.642920116002</v>
+          </cell>
+          <cell r="AN79">
+            <v>0.67549966523140537</v>
+          </cell>
+          <cell r="AP79">
+            <v>0.67549966523140537</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="AM80">
+            <v>101.96716906489701</v>
+          </cell>
+          <cell r="AN80">
+            <v>0.65783427867104449</v>
+          </cell>
+          <cell r="AP80">
+            <v>0.65783427867104449</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="AM81">
+            <v>103.291418013791</v>
+          </cell>
+          <cell r="AN81">
+            <v>0.64356058963258</v>
+          </cell>
+          <cell r="AP81">
+            <v>0.64356058963258</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="AM82">
+            <v>104.61566696268601</v>
+          </cell>
+          <cell r="AN82">
+            <v>0.63360017169364646</v>
+          </cell>
+          <cell r="AP82">
+            <v>0.63360017169364646</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="AM83">
+            <v>105.939915911581</v>
+          </cell>
+          <cell r="AN83">
+            <v>0.62281583555060738</v>
+          </cell>
+          <cell r="AP83">
+            <v>0.62281583555060738</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="AM84">
+            <v>107.264164860476</v>
+          </cell>
+          <cell r="AN84">
+            <v>0.5965212549129042</v>
+          </cell>
+          <cell r="AP84">
+            <v>0.5965212549129042</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="AM85">
+            <v>108.58841380937</v>
+          </cell>
+          <cell r="AN85">
+            <v>0.54725054118196004</v>
+          </cell>
+          <cell r="AP85">
+            <v>0.54725054118196004</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="AM86">
+            <v>109.912662758265</v>
+          </cell>
+          <cell r="AN86">
+            <v>0.52283622697450738</v>
+          </cell>
+          <cell r="AP86">
+            <v>0.52283622697450738</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="AM87">
+            <v>111.23691170716</v>
+          </cell>
+          <cell r="AN87">
+            <v>0.49842191245136697</v>
+          </cell>
+          <cell r="AP87">
+            <v>0.49842191245136697</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="AM88">
+            <v>112.56116065605499</v>
+          </cell>
+          <cell r="AN88">
+            <v>0.47986837069136301</v>
+          </cell>
+          <cell r="AP88">
+            <v>0.47986837069136301</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="AM89">
+            <v>113.885409604949</v>
+          </cell>
+          <cell r="AN89">
+            <v>0.46396539681377086</v>
+          </cell>
+          <cell r="AP89">
+            <v>0.46396539681377086</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="AM90">
+            <v>115.20965855384399</v>
+          </cell>
+          <cell r="AN90">
+            <v>0.44779454415214015</v>
+          </cell>
+          <cell r="AP90">
+            <v>0.44779454415214015</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="AM91">
+            <v>116.533907502739</v>
+          </cell>
+          <cell r="AN91">
+            <v>0.42796314964976334</v>
+          </cell>
+          <cell r="AP91">
+            <v>0.42796314964976334</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="AM92">
+            <v>117.858156451634</v>
+          </cell>
+          <cell r="AN92">
+            <v>0.3941460649325324</v>
+          </cell>
+          <cell r="AP92">
+            <v>0.3941460649325324</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="AM93">
+            <v>119.18240540052901</v>
+          </cell>
+          <cell r="AN93">
+            <v>0.34877380494410193</v>
+          </cell>
+          <cell r="AP93">
+            <v>0.34877380494410193</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="AM94">
+            <v>120.506654349423</v>
+          </cell>
+          <cell r="AN94">
+            <v>0.30873698509641395</v>
+          </cell>
+          <cell r="AP94">
+            <v>0.30873698509641395</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="AM95">
+            <v>121.83090329831801</v>
+          </cell>
+          <cell r="AN95">
+            <v>0.26261095013479419</v>
+          </cell>
+          <cell r="AP95">
+            <v>0.26261095013479419</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="AM96">
+            <v>123.155152247213</v>
+          </cell>
+          <cell r="AN96">
+            <v>0.22965905661337296</v>
+          </cell>
+          <cell r="AP96">
+            <v>0.22965905661337296</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="AM97">
+            <v>124.479401196108</v>
+          </cell>
+          <cell r="AN97">
+            <v>0.19670718106519219</v>
+          </cell>
+          <cell r="AP97">
+            <v>0.19670718106519219</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="AM98">
+            <v>125.803650145002</v>
+          </cell>
+          <cell r="AN98">
+            <v>0.16475946556696536</v>
+          </cell>
+          <cell r="AP98">
+            <v>0.16475946556696536</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="AM99">
+            <v>127.127899093897</v>
+          </cell>
+          <cell r="AN99">
+            <v>0.13180757204551766</v>
+          </cell>
+          <cell r="AP99">
+            <v>0.13180757204551766</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="AM100">
+            <v>128.452148042792</v>
+          </cell>
+          <cell r="AN100">
+            <v>9.8855678524100599E-2</v>
+          </cell>
+          <cell r="AP100">
+            <v>9.8855678524100599E-2</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="AM101">
+            <v>129.77639699168699</v>
+          </cell>
+          <cell r="AN101">
+            <v>6.5903785002670398E-2</v>
+          </cell>
+          <cell r="AP101">
+            <v>6.5903785002670398E-2</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="AM102">
+            <v>131.10064594058099</v>
+          </cell>
+          <cell r="AN102">
+            <v>3.2951891481246595E-2</v>
+          </cell>
+          <cell r="AP102">
+            <v>3.2951891481246595E-2</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="AM103">
+            <v>132.42489488947601</v>
+          </cell>
+          <cell r="AN103">
+            <v>0</v>
+          </cell>
+          <cell r="AP103">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13934,8 +16985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y45" sqref="Y45"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15105,7 +18156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP103"/>
   <sheetViews>
-    <sheetView topLeftCell="O60" workbookViewId="0">
+    <sheetView topLeftCell="O69" workbookViewId="0">
       <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
@@ -28578,15 +31629,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP103"/>
+  <dimension ref="A1:AX203"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3:AP103"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="N112" sqref="N112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28711,7 +31762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -28842,8 +31893,29 @@
         <f>(Sheet4!$A$26-AO3)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -28974,8 +32046,33 @@
         <f>(Sheet4!$A$26-AO4)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ4">
+        <f>IF(AND(D105=$AR$3,E105=$AS$3,F105=$AT$3,G105=$AU$3,H105=$AV$3,I105=$AW$3,J105=$AX$3),1,IF(AND(D105=$AR$4,E105=$AS$4,F105=$AT$4,G105=$AU$4,H105=$AV$4,I105=$AW$4,J105=$AX$4),2,IF(AND(D105=$AR$5,E105=$AS$5,F105=$AT$5,G105=$AU$5,H105=$AV$5,I105=$AW$5,J105=$AX$5),3,IF(AND(D105=$AR$6,E105=$AS$6,F105=$AT$6,G105=$AU$6,H105=$AV$6,I105=$AW$6,J105=$AX$6),4,IF(AND(D105=$AR$7,E105=$AS$7,F105=$AT$7,G105=$AU$7,H105=$AV$7,I105=$AW$7,J105=$AX$7),5,IF(AND(D105=$AR$8,E105=$AS$8,F105=$AT$8,G105=$AU$8,H105=$AV$8,I105=$AW$8,J105=$AX$8),6,0))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.02</v>
       </c>
@@ -29106,8 +32203,33 @@
         <f>(Sheet4!$A$26-AO5)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ5">
+        <f t="shared" ref="AQ5:AQ68" si="3">IF(AND(D106=$AR$3,E106=$AS$3,F106=$AT$3,G106=$AU$3,H106=$AV$3,I106=$AW$3,J106=$AX$3),1,IF(AND(D106=$AR$4,E106=$AS$4,F106=$AT$4,G106=$AU$4,H106=$AV$4,I106=$AW$4,J106=$AX$4),2,IF(AND(D106=$AR$5,E106=$AS$5,F106=$AT$5,G106=$AU$5,H106=$AV$5,I106=$AW$5,J106=$AX$5),3,IF(AND(D106=$AR$6,E106=$AS$6,F106=$AT$6,G106=$AU$6,H106=$AV$6,I106=$AW$6,J106=$AX$6),4,IF(AND(D106=$AR$7,E106=$AS$7,F106=$AT$7,G106=$AU$7,H106=$AV$7,I106=$AW$7,J106=$AX$7),5,IF(AND(D106=$AR$8,E106=$AS$8,F106=$AT$8,G106=$AU$8,H106=$AV$8,I106=$AW$8,J106=$AX$8),6,0))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.03</v>
       </c>
@@ -29238,8 +32360,33 @@
         <f>(Sheet4!$A$26-AO6)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.04</v>
       </c>
@@ -29370,8 +32517,33 @@
         <f>(Sheet4!$A$26-AO7)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.05</v>
       </c>
@@ -29502,8 +32674,33 @@
         <f>(Sheet4!$A$26-AO8)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.06</v>
       </c>
@@ -29634,8 +32831,12 @@
         <f>(Sheet4!$A$26-AO9)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -29766,8 +32967,12 @@
         <f>(Sheet4!$A$26-AO10)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.08</v>
       </c>
@@ -29898,8 +33103,12 @@
         <f>(Sheet4!$A$26-AO11)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.09</v>
       </c>
@@ -30030,8 +33239,12 @@
         <f>(Sheet4!$A$26-AO12)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -30162,8 +33375,12 @@
         <f>(Sheet4!$A$26-AO13)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.11</v>
       </c>
@@ -30294,8 +33511,12 @@
         <f>(Sheet4!$A$26-AO14)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.12</v>
       </c>
@@ -30426,8 +33647,12 @@
         <f>(Sheet4!$A$26-AO15)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.13</v>
       </c>
@@ -30558,8 +33783,12 @@
         <f>(Sheet4!$A$26-AO16)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.14000000000000001</v>
       </c>
@@ -30690,8 +33919,12 @@
         <f>(Sheet4!$A$26-AO17)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.15</v>
       </c>
@@ -30822,8 +34055,12 @@
         <f>(Sheet4!$A$26-AO18)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.16</v>
       </c>
@@ -30954,8 +34191,12 @@
         <f>(Sheet4!$A$26-AO19)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.17</v>
       </c>
@@ -31086,8 +34327,12 @@
         <f>(Sheet4!$A$26-AO20)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.18</v>
       </c>
@@ -31218,8 +34463,12 @@
         <f>(Sheet4!$A$26-AO21)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.19</v>
       </c>
@@ -31350,8 +34599,12 @@
         <f>(Sheet4!$A$26-AO22)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.2</v>
       </c>
@@ -31482,8 +34735,12 @@
         <f>(Sheet4!$A$26-AO23)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.21</v>
       </c>
@@ -31614,8 +34871,12 @@
         <f>(Sheet4!$A$26-AO24)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.22</v>
       </c>
@@ -31746,8 +35007,12 @@
         <f>(Sheet4!$A$26-AO25)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.23</v>
       </c>
@@ -31878,8 +35143,12 @@
         <f>(Sheet4!$A$26-AO26)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.24</v>
       </c>
@@ -32010,8 +35279,12 @@
         <f>(Sheet4!$A$26-AO27)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.25</v>
       </c>
@@ -32142,8 +35415,12 @@
         <f>(Sheet4!$A$26-AO28)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.26</v>
       </c>
@@ -32274,8 +35551,12 @@
         <f>(Sheet4!$A$26-AO29)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.27</v>
       </c>
@@ -32406,8 +35687,12 @@
         <f>(Sheet4!$A$26-AO30)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.28000000000000003</v>
       </c>
@@ -32538,8 +35823,12 @@
         <f>(Sheet4!$A$26-AO31)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.28999999999999998</v>
       </c>
@@ -32670,8 +35959,12 @@
         <f>(Sheet4!$A$26-AO32)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.3</v>
       </c>
@@ -32802,8 +36095,12 @@
         <f>(Sheet4!$A$26-AO33)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.31</v>
       </c>
@@ -32934,8 +36231,12 @@
         <f>(Sheet4!$A$26-AO34)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.32</v>
       </c>
@@ -33066,8 +36367,12 @@
         <f>(Sheet4!$A$26-AO35)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.33</v>
       </c>
@@ -33198,8 +36503,12 @@
         <f>(Sheet4!$A$26-AO36)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.34</v>
       </c>
@@ -33330,8 +36639,12 @@
         <f>(Sheet4!$A$26-AO37)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.35</v>
       </c>
@@ -33462,8 +36775,12 @@
         <f>(Sheet4!$A$26-AO38)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.36</v>
       </c>
@@ -33594,8 +36911,12 @@
         <f>(Sheet4!$A$26-AO39)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.37</v>
       </c>
@@ -33726,8 +37047,12 @@
         <f>(Sheet4!$A$26-AO40)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.38</v>
       </c>
@@ -33858,8 +37183,12 @@
         <f>(Sheet4!$A$26-AO41)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.39</v>
       </c>
@@ -33990,8 +37319,12 @@
         <f>(Sheet4!$A$26-AO42)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.4</v>
       </c>
@@ -34122,8 +37455,12 @@
         <f>(Sheet4!$A$26-AO43)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ43">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.41</v>
       </c>
@@ -34254,8 +37591,12 @@
         <f>(Sheet4!$A$26-AO44)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ44">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.42</v>
       </c>
@@ -34386,8 +37727,12 @@
         <f>(Sheet4!$A$26-AO45)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.43</v>
       </c>
@@ -34518,8 +37863,12 @@
         <f>(Sheet4!$A$26-AO46)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.44</v>
       </c>
@@ -34650,8 +37999,12 @@
         <f>(Sheet4!$A$26-AO47)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.45</v>
       </c>
@@ -34782,8 +38135,12 @@
         <f>(Sheet4!$A$26-AO48)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.46</v>
       </c>
@@ -34914,8 +38271,12 @@
         <f>(Sheet4!$A$26-AO49)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ49">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.47</v>
       </c>
@@ -35046,8 +38407,12 @@
         <f>(Sheet4!$A$26-AO50)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.48</v>
       </c>
@@ -35178,8 +38543,12 @@
         <f>(Sheet4!$A$26-AO51)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.49</v>
       </c>
@@ -35310,8 +38679,12 @@
         <f>(Sheet4!$A$26-AO52)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ52">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.5</v>
       </c>
@@ -35442,8 +38815,12 @@
         <f>(Sheet4!$A$26-AO53)/Sheet4!$A$26</f>
         <v>0.90592514082557196</v>
       </c>
+      <c r="AQ53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.51</v>
       </c>
@@ -35574,8 +38951,12 @@
         <f>(Sheet4!$A$26-AO54)/Sheet4!$A$26</f>
         <v>0.86874682494803357</v>
       </c>
+      <c r="AQ54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.52</v>
       </c>
@@ -35706,8 +39087,12 @@
         <f>(Sheet4!$A$26-AO55)/Sheet4!$A$26</f>
         <v>0.86874682494803357</v>
       </c>
+      <c r="AQ55">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.53</v>
       </c>
@@ -35838,8 +39223,12 @@
         <f>(Sheet4!$A$26-AO56)/Sheet4!$A$26</f>
         <v>0.86874682494803357</v>
       </c>
+      <c r="AQ56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.54</v>
       </c>
@@ -35970,8 +39359,12 @@
         <f>(Sheet4!$A$26-AO57)/Sheet4!$A$26</f>
         <v>0.86874682494803357</v>
       </c>
+      <c r="AQ57">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.55000000000000004</v>
       </c>
@@ -36102,8 +39495,12 @@
         <f>(Sheet4!$A$26-AO58)/Sheet4!$A$26</f>
         <v>0.86874682494803357</v>
       </c>
+      <c r="AQ58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.56000000000000005</v>
       </c>
@@ -36234,8 +39631,12 @@
         <f>(Sheet4!$A$26-AO59)/Sheet4!$A$26</f>
         <v>0.86874682494803357</v>
       </c>
+      <c r="AQ59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.56999999999999995</v>
       </c>
@@ -36366,8 +39767,12 @@
         <f>(Sheet4!$A$26-AO60)/Sheet4!$A$26</f>
         <v>0.84296863179644466</v>
       </c>
+      <c r="AQ60">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.57999999999999996</v>
       </c>
@@ -36498,8 +39903,12 @@
         <f>(Sheet4!$A$26-AO61)/Sheet4!$A$26</f>
         <v>0.84296863179644499</v>
       </c>
+      <c r="AQ61">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.59</v>
       </c>
@@ -36630,8 +40039,12 @@
         <f>(Sheet4!$A$26-AO62)/Sheet4!$A$26</f>
         <v>0.83874572185723861</v>
       </c>
+      <c r="AQ62">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.6</v>
       </c>
@@ -36762,8 +40175,12 @@
         <f>(Sheet4!$A$26-AO63)/Sheet4!$A$26</f>
         <v>0.83117017664185899</v>
       </c>
+      <c r="AQ63">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.61</v>
       </c>
@@ -36894,8 +40311,12 @@
         <f>(Sheet4!$A$26-AO64)/Sheet4!$A$26</f>
         <v>0.82103985614946251</v>
       </c>
+      <c r="AQ64">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.62</v>
       </c>
@@ -37026,8 +40447,12 @@
         <f>(Sheet4!$A$26-AO65)/Sheet4!$A$26</f>
         <v>0.81354070937096312</v>
       </c>
+      <c r="AQ65">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.63</v>
       </c>
@@ -37158,8 +40583,12 @@
         <f>(Sheet4!$A$26-AO66)/Sheet4!$A$26</f>
         <v>0.80579031591889505</v>
       </c>
+      <c r="AQ66">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.64</v>
       </c>
@@ -37275,23 +40704,27 @@
         <v>31913869.282268099</v>
       </c>
       <c r="AM67">
-        <f t="shared" ref="AM67:AM102" si="3">B67</f>
+        <f t="shared" ref="AM67:AM102" si="4">B67</f>
         <v>82.846267152470702</v>
       </c>
       <c r="AN67" s="2">
-        <f t="shared" ref="AN67:AN102" si="4">(MAX($AO:$AO)-AO67)/MAX($AO:$AO)</f>
+        <f t="shared" ref="AN67:AN102" si="5">(MAX($AO:$AO)-AO67)/MAX($AO:$AO)</f>
         <v>0.78893397099289164</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO102" si="5">SUM(AF67:AL67)</f>
+        <f t="shared" ref="AO67:AO102" si="6">SUM(AF67:AL67)</f>
         <v>98448636.474545389</v>
       </c>
       <c r="AP67" s="2">
         <f>(Sheet4!$A$26-AO67)/Sheet4!$A$26</f>
         <v>0.80579031591889505</v>
       </c>
+      <c r="AQ67">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.65</v>
       </c>
@@ -37407,23 +40840,27 @@
         <v>34384366.155358598</v>
       </c>
       <c r="AM68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83.845831377473303</v>
       </c>
       <c r="AN68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78363742262718517</v>
       </c>
       <c r="AO68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100919133.34738754</v>
       </c>
       <c r="AP68" s="2">
         <f>(Sheet4!$A$26-AO68)/Sheet4!$A$26</f>
         <v>0.80091676525959166</v>
       </c>
+      <c r="AQ68">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.66</v>
       </c>
@@ -37539,23 +40976,27 @@
         <v>38359943.185411401</v>
       </c>
       <c r="AM69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85.135767244972897</v>
       </c>
       <c r="AN69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77511410237823841</v>
       </c>
       <c r="AO69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104894710.37743834</v>
       </c>
       <c r="AP69" s="2">
         <f>(Sheet4!$A$26-AO69)/Sheet4!$A$26</f>
         <v>0.79307414207358251</v>
       </c>
+      <c r="AQ69">
+        <f t="shared" ref="AQ69:AQ103" si="7">IF(AND(D170=$AR$3,E170=$AS$3,F170=$AT$3,G170=$AU$3,H170=$AV$3,I170=$AW$3,J170=$AX$3),1,IF(AND(D170=$AR$4,E170=$AS$4,F170=$AT$4,G170=$AU$4,H170=$AV$4,I170=$AW$4,J170=$AX$4),2,IF(AND(D170=$AR$5,E170=$AS$5,F170=$AT$5,G170=$AU$5,H170=$AV$5,I170=$AW$5,J170=$AX$5),3,IF(AND(D170=$AR$6,E170=$AS$6,F170=$AT$6,G170=$AU$6,H170=$AV$6,I170=$AW$6,J170=$AX$6),4,IF(AND(D170=$AR$7,E170=$AS$7,F170=$AT$7,G170=$AU$7,H170=$AV$7,I170=$AW$7,J170=$AX$7),5,IF(AND(D170=$AR$8,E170=$AS$8,F170=$AT$8,G170=$AU$8,H170=$AV$8,I170=$AW$8,J170=$AX$8),6,0))))))</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.67</v>
       </c>
@@ -37671,23 +41112,27 @@
         <v>43469412.804106101</v>
       </c>
       <c r="AM70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86.425703112472505</v>
       </c>
       <c r="AN70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76415980680420537</v>
       </c>
       <c r="AO70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110004179.99638104</v>
       </c>
       <c r="AP70" s="2">
         <f>(Sheet4!$A$26-AO70)/Sheet4!$A$26</f>
         <v>0.78299468829898977</v>
       </c>
+      <c r="AQ70">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.68</v>
       </c>
@@ -37803,23 +41248,27 @@
         <v>47155031.358996697</v>
       </c>
       <c r="AM71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87.715638979971999</v>
       </c>
       <c r="AN71" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75625813441266831</v>
       </c>
       <c r="AO71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113689798.55127025</v>
       </c>
       <c r="AP71" s="2">
         <f>(Sheet4!$A$26-AO71)/Sheet4!$A$26</f>
         <v>0.77572406637043145</v>
       </c>
+      <c r="AQ71">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.69</v>
       </c>
@@ -37935,23 +41384,27 @@
         <v>62523479.702237003</v>
       </c>
       <c r="AM72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.005574847471607</v>
       </c>
       <c r="AN72" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72330940622334261</v>
       </c>
       <c r="AO72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>129058246.89451493</v>
       </c>
       <c r="AP72" s="2">
         <f>(Sheet4!$A$26-AO72)/Sheet4!$A$26</f>
         <v>0.74540671912784118</v>
       </c>
+      <c r="AQ72">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.7</v>
       </c>
@@ -38067,23 +41520,27 @@
         <v>41162466.974313103</v>
       </c>
       <c r="AM73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.295510714971201</v>
       </c>
       <c r="AN73" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.7105279628462835</v>
       </c>
       <c r="AO73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>135019962.65980133</v>
       </c>
       <c r="AP73" s="2">
         <f>(Sheet4!$A$26-AO73)/Sheet4!$A$26</f>
         <v>0.7336460388704058</v>
       </c>
+      <c r="AQ73">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.71</v>
       </c>
@@ -38199,23 +41656,27 @@
         <v>45459578.247212201</v>
       </c>
       <c r="AM74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.585446582470794</v>
       </c>
       <c r="AN74" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.70131529881099552</v>
       </c>
       <c r="AO74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>139317073.93269899</v>
       </c>
       <c r="AP74" s="2">
         <f>(Sheet4!$A$26-AO74)/Sheet4!$A$26</f>
         <v>0.72516912489113927</v>
       </c>
+      <c r="AQ74">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.72</v>
       </c>
@@ -38331,23 +41792,27 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92.875382449970402</v>
       </c>
       <c r="AN75" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69137849436072241</v>
       </c>
       <c r="AO75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>143951949.82270131</v>
       </c>
       <c r="AP75" s="2">
         <f>(Sheet4!$A$26-AO75)/Sheet4!$A$26</f>
         <v>0.71602590244960529</v>
       </c>
+      <c r="AQ75">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.73</v>
       </c>
@@ -38463,23 +41928,27 @@
         <v>31913869.2822675</v>
       </c>
       <c r="AM76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94.936812529323305</v>
       </c>
       <c r="AN76" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68996655397902629</v>
       </c>
       <c r="AO76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>144610528.59075424</v>
       </c>
       <c r="AP76" s="2">
         <f>(Sheet4!$A$26-AO76)/Sheet4!$A$26</f>
         <v>0.71472672371979973</v>
       </c>
+      <c r="AQ76">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.74</v>
       </c>
@@ -38595,23 +42064,27 @@
         <v>33059679.214798599</v>
       </c>
       <c r="AM77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95.455254184969604</v>
       </c>
       <c r="AN77" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68750802114946574</v>
       </c>
       <c r="AO77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>145757274.9711962</v>
       </c>
       <c r="AP77" s="2">
         <f>(Sheet4!$A$26-AO77)/Sheet4!$A$26</f>
         <v>0.71246453644893437</v>
       </c>
+      <c r="AQ77">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.75</v>
       </c>
@@ -38727,23 +42200,27 @@
         <v>36710994.927855201</v>
       </c>
       <c r="AM78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.745190052469198</v>
       </c>
       <c r="AN78" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.67966637246748551</v>
       </c>
       <c r="AO78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>149414896.3519792</v>
       </c>
       <c r="AP78" s="2">
         <f>(Sheet4!$A$26-AO78)/Sheet4!$A$26</f>
         <v>0.70524914456248777</v>
       </c>
+      <c r="AQ78">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.76</v>
       </c>
@@ -38859,23 +42336,27 @@
         <v>41606411.617905103</v>
       </c>
       <c r="AM79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.035125919968706</v>
       </c>
       <c r="AN79" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66917098931028884</v>
       </c>
       <c r="AO79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>154310313.04202893</v>
       </c>
       <c r="AP79" s="2">
         <f>(Sheet4!$A$26-AO79)/Sheet4!$A$26</f>
         <v>0.69559195312880306</v>
       </c>
+      <c r="AQ79">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.77</v>
       </c>
@@ -38991,23 +42472,27 @@
         <v>45783158.583485298</v>
       </c>
       <c r="AM80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.3250617874684</v>
       </c>
       <c r="AN80" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66021637675534017</v>
       </c>
       <c r="AO80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>158487060.00760931</v>
       </c>
       <c r="AP80" s="2">
         <f>(Sheet4!$A$26-AO80)/Sheet4!$A$26</f>
         <v>0.68735248189060238</v>
       </c>
+      <c r="AQ80">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.78</v>
       </c>
@@ -39123,23 +42608,27 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100.61499765496799</v>
       </c>
       <c r="AN81" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.64959345251230871</v>
       </c>
       <c r="AO81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>163441966.35619855</v>
       </c>
       <c r="AP81" s="2">
         <f>(Sheet4!$A$26-AO81)/Sheet4!$A$26</f>
         <v>0.67757793517192044</v>
       </c>
+      <c r="AQ81">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.79</v>
       </c>
@@ -39255,23 +42744,27 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101.904933522467</v>
       </c>
       <c r="AN82" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.63128278455600073</v>
       </c>
       <c r="AO82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>171982707.38267589</v>
       </c>
       <c r="AP82" s="2">
         <f>(Sheet4!$A$26-AO82)/Sheet4!$A$26</f>
         <v>0.66072961023854704</v>
       </c>
+      <c r="AQ82">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.8</v>
       </c>
@@ -39387,23 +42880,27 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103.194869389967</v>
       </c>
       <c r="AN83" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60559124561396849</v>
       </c>
       <c r="AO83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>183966146.8289668</v>
       </c>
       <c r="AP83" s="2">
         <f>(Sheet4!$A$26-AO83)/Sheet4!$A$26</f>
         <v>0.63708987207243295</v>
       </c>
+      <c r="AQ83">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.81</v>
       </c>
@@ -39519,23 +43016,27 @@
         <v>48014147.619525701</v>
       </c>
       <c r="AM84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>104.48480525746599</v>
       </c>
       <c r="AN84" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57089896397860918</v>
       </c>
       <c r="AO84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200147849.96356741</v>
       </c>
       <c r="AP84" s="2">
         <f>(Sheet4!$A$26-AO84)/Sheet4!$A$26</f>
         <v>0.60516821661631537</v>
       </c>
+      <c r="AQ84">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.82</v>
       </c>
@@ -39651,23 +43152,27 @@
         <v>97084726.772315398</v>
       </c>
       <c r="AM85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105.774741124966</v>
       </c>
       <c r="AN85" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54672192310231682</v>
       </c>
       <c r="AO85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>211424874.12258151</v>
       </c>
       <c r="AP85" s="2">
         <f>(Sheet4!$A$26-AO85)/Sheet4!$A$26</f>
         <v>0.58292202431010309</v>
       </c>
+      <c r="AQ85">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.83</v>
       </c>
@@ -39783,23 +43288,27 @@
         <v>97084726.772314996</v>
       </c>
       <c r="AM86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107.064676992465</v>
       </c>
       <c r="AN86" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54092955564912926</v>
       </c>
       <c r="AO86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>214126638.49654734</v>
       </c>
       <c r="AP86" s="2">
         <f>(Sheet4!$A$26-AO86)/Sheet4!$A$26</f>
         <v>0.57759225211295173</v>
       </c>
+      <c r="AQ86">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.84</v>
       </c>
@@ -39915,23 +43424,27 @@
         <v>97084726.772315294</v>
       </c>
       <c r="AM87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108.354612859965</v>
       </c>
       <c r="AN87" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.53593052377922457</v>
       </c>
       <c r="AO87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>216458363.18763131</v>
       </c>
       <c r="AP87" s="2">
         <f>(Sheet4!$A$26-AO87)/Sheet4!$A$26</f>
         <v>0.57299245741963867</v>
       </c>
+      <c r="AQ87">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.85</v>
       </c>
@@ -40047,23 +43560,27 @@
         <v>97084726.7723151</v>
       </c>
       <c r="AM88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109.64454872746499</v>
       </c>
       <c r="AN88" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.53302456533363129</v>
       </c>
       <c r="AO88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>217813804.64813614</v>
       </c>
       <c r="AP88" s="2">
         <f>(Sheet4!$A$26-AO88)/Sheet4!$A$26</f>
         <v>0.57031857723945822</v>
       </c>
+      <c r="AQ88">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.86</v>
       </c>
@@ -40179,23 +43696,27 @@
         <v>97084726.772315398</v>
       </c>
       <c r="AM89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110.934484594964</v>
       </c>
       <c r="AN89" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52778290260461691</v>
       </c>
       <c r="AO89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>220258700.92518473</v>
       </c>
       <c r="AP89" s="2">
         <f>(Sheet4!$A$26-AO89)/Sheet4!$A$26</f>
         <v>0.56549552889079524</v>
       </c>
+      <c r="AQ89">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.87</v>
       </c>
@@ -40311,23 +43832,27 @@
         <v>37318712.209500998</v>
       </c>
       <c r="AM90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112.224420462464</v>
       </c>
       <c r="AN90" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46741241587933541</v>
       </c>
       <c r="AO90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>248417624.12740424</v>
       </c>
       <c r="AP90" s="2">
         <f>(Sheet4!$A$26-AO90)/Sheet4!$A$26</f>
         <v>0.50994640424059112</v>
       </c>
+      <c r="AQ90">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.88</v>
       </c>
@@ -40443,23 +43968,27 @@
         <v>42416056.6864134</v>
       </c>
       <c r="AM91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113.51435632996299</v>
       </c>
       <c r="AN91" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.45648411564328933</v>
       </c>
       <c r="AO91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>253514968.6043165</v>
       </c>
       <c r="AP91" s="2">
         <f>(Sheet4!$A$26-AO91)/Sheet4!$A$26</f>
         <v>0.49989086974093705</v>
       </c>
+      <c r="AQ91">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.89</v>
       </c>
@@ -40575,23 +44104,27 @@
         <v>46379363.264153503</v>
       </c>
       <c r="AM92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114.804292197463</v>
       </c>
       <c r="AN92" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4479871022659852</v>
       </c>
       <c r="AO92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>257478275.18205759</v>
       </c>
       <c r="AP92" s="2">
         <f>(Sheet4!$A$26-AO92)/Sheet4!$A$26</f>
         <v>0.49207245248354137</v>
       </c>
+      <c r="AQ92">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.9</v>
       </c>
@@ -40707,23 +44240,27 @@
         <v>97084726.772315204</v>
       </c>
       <c r="AM93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117.377242672368</v>
       </c>
       <c r="AN93" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41459155621714583</v>
       </c>
       <c r="AO93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>273055135.12629998</v>
       </c>
       <c r="AP93" s="2">
         <f>(Sheet4!$A$26-AO93)/Sheet4!$A$26</f>
         <v>0.46134397155095769</v>
       </c>
+      <c r="AQ93">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.91</v>
       </c>
@@ -40839,23 +44376,27 @@
         <v>97084726.772315398</v>
       </c>
       <c r="AM94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117.384163932462</v>
       </c>
       <c r="AN94" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41438999884220751</v>
       </c>
       <c r="AO94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>273149148.59131569</v>
       </c>
       <c r="AP94" s="2">
         <f>(Sheet4!$A$26-AO94)/Sheet4!$A$26</f>
         <v>0.46115851113226725</v>
       </c>
+      <c r="AQ94">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.92</v>
       </c>
@@ -40971,23 +44512,27 @@
         <v>33278577.0115714</v>
       </c>
       <c r="AM95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118.67409979996199</v>
       </c>
       <c r="AN95" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35849120139228446</v>
       </c>
       <c r="AO95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>299222318.27854365</v>
       </c>
       <c r="AP95" s="2">
         <f>(Sheet4!$A$26-AO95)/Sheet4!$A$26</f>
         <v>0.4097239536891194</v>
       </c>
+      <c r="AQ95">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.93</v>
       </c>
@@ -41103,23 +44648,27 @@
         <v>45902040.624004103</v>
       </c>
       <c r="AM96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119.964035667461</v>
       </c>
       <c r="AN96" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32842606646550299</v>
       </c>
       <c r="AO96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>313245757.07107991</v>
       </c>
       <c r="AP96" s="2">
         <f>(Sheet4!$A$26-AO96)/Sheet4!$A$26</f>
         <v>0.38205990759201214</v>
       </c>
+      <c r="AQ96">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.94</v>
       </c>
@@ -41235,23 +44784,27 @@
         <v>97084726.7722141</v>
       </c>
       <c r="AM97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121.857199670323</v>
       </c>
       <c r="AN97" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23124870180246668</v>
       </c>
       <c r="AO97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>358572705.66754681</v>
       </c>
       <c r="AP97" s="2">
         <f>(Sheet4!$A$26-AO97)/Sheet4!$A$26</f>
         <v>0.29264340897390906</v>
       </c>
+      <c r="AQ97">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.95</v>
       </c>
@@ -41367,23 +44920,27 @@
         <v>97084726.772315294</v>
       </c>
       <c r="AM98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122.543907402461</v>
       </c>
       <c r="AN98" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22256010173570195</v>
       </c>
       <c r="AO98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>362625375.03110802</v>
       </c>
       <c r="AP98" s="2">
         <f>(Sheet4!$A$26-AO98)/Sheet4!$A$26</f>
         <v>0.28464870569545481</v>
       </c>
+      <c r="AQ98">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.96</v>
       </c>
@@ -41499,23 +45056,27 @@
         <v>97084726.772315204</v>
       </c>
       <c r="AM99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>123.83384327045199</v>
       </c>
       <c r="AN99" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3536948912812317E-2</v>
       </c>
       <c r="AO99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>432135026.90434802</v>
       </c>
       <c r="AP99" s="2">
         <f>(Sheet4!$A$26-AO99)/Sheet4!$A$26</f>
         <v>0.14752697385328853</v>
       </c>
+      <c r="AQ99">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.97</v>
       </c>
@@ -41631,23 +45192,27 @@
         <v>97084726.772315204</v>
       </c>
       <c r="AM100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125.12377913746001</v>
       </c>
       <c r="AN100" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6794043040143141E-2</v>
       </c>
       <c r="AO100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>439944508.42792577</v>
       </c>
       <c r="AP100" s="2">
         <f>(Sheet4!$A$26-AO100)/Sheet4!$A$26</f>
         <v>0.13212120497884189</v>
       </c>
+      <c r="AQ100">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.98</v>
       </c>
@@ -41763,23 +45328,27 @@
         <v>97084726.772337407</v>
       </c>
       <c r="AM101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126.413715004959</v>
       </c>
       <c r="AN101" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0051137167521247E-2</v>
       </c>
       <c r="AO101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>447753989.95148146</v>
       </c>
       <c r="AP101" s="2">
         <f>(Sheet4!$A$26-AO101)/Sheet4!$A$26</f>
         <v>0.1167154361044388</v>
       </c>
+      <c r="AQ101">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.99</v>
       </c>
@@ -41895,23 +45464,27 @@
         <v>97084726.772315502</v>
       </c>
       <c r="AM102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>127.703650872456</v>
       </c>
       <c r="AN102" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.278502628176694E-2</v>
       </c>
       <c r="AO102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>455807512.7372992</v>
       </c>
       <c r="AP102" s="2">
         <f>(Sheet4!$A$26-AO102)/Sheet4!$A$26</f>
         <v>0.1008282468859467</v>
       </c>
+      <c r="AQ102">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -42041,6 +45614,3399 @@
       <c r="AP103" s="2">
         <f>(Sheet4!$A$26-AO103)/Sheet4!$A$26</f>
         <v>7.9862898853494735E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>0.01</v>
+      </c>
+      <c r="D105">
+        <f>IF(D3&gt;0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ref="D105:J120" si="8">IF(E3&gt;0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>0.02</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>0.03</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>0.04</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>0.05</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>0.06</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>0.08</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>0.09</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>0.1</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>0.11</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>0.12</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>0.13</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>0.15</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>0.16</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>0.17</v>
+      </c>
+      <c r="D121">
+        <f t="shared" ref="D121:J136" si="9">IF(D19&gt;0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>0.18</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>0.19</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>0.2</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>0.21</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>0.22</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>0.23</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>0.24</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>0.25</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>0.26</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>0.27</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>0.3</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>0.31</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>0.32</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>0.33</v>
+      </c>
+      <c r="D137">
+        <f t="shared" ref="D137:J152" si="10">IF(D35&gt;0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>0.34</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>0.35</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>0.36</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>0.37</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>0.38</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>0.39</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>0.4</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>0.41</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>0.42</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>0.43</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>0.44</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>0.45</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>0.46</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>0.47</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>0.48</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>0.49</v>
+      </c>
+      <c r="D153">
+        <f t="shared" ref="D153:J168" si="11">IF(D51&gt;0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>0.5</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>0.51</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>0.52</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>0.53</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>0.54</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>0.59</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>0.6</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>0.61</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>0.62</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>0.63</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>0.64</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>0.65</v>
+      </c>
+      <c r="D169">
+        <f t="shared" ref="D169:J184" si="12">IF(D67&gt;0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>0.66</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>0.67</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>0.68</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>0.69</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>0.7</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>0.71</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>0.72</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>0.73</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>0.74</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>0.75</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>0.76</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>0.77</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>0.78</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>0.79</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>0.8</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>0.81</v>
+      </c>
+      <c r="D185">
+        <f t="shared" ref="D185:J200" si="13">IF(D83&gt;0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>0.82</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>0.83</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>0.84</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>0.85</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>0.86</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>0.87</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>0.88</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>0.89</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>0.9</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>0.91</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>0.92</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>0.93</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>0.94</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>0.95</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>0.96</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>0.97</v>
+      </c>
+      <c r="D201">
+        <f t="shared" ref="D201:J203" si="14">IF(D99&gt;0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>0.98</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>0.99</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
